--- a/Traling_stoploss_new.xlsx
+++ b/Traling_stoploss_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STOCK\Capital_vercel_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCE9E32-BF51-4A59-B075-FC9BBDC09690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FB448C-9C89-4C1F-8B56-043A0171D9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2572" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3057" uniqueCount="215">
   <si>
     <t>Namee</t>
   </si>
@@ -501,48 +501,6 @@
     <t>Rejected By 5P</t>
   </si>
   <si>
-    <t>NIFTY 22 Feb 2024 CE 22000.00</t>
-  </si>
-  <si>
-    <t>NIFTY 22 Feb 2024 CE 22100.00</t>
-  </si>
-  <si>
-    <t>Order rejected by RMS as margin required is Rs229773.5, while available margin is Rs6019.29</t>
-  </si>
-  <si>
-    <t>/Date(1708068299033+0530)/</t>
-  </si>
-  <si>
-    <t>/Date(1708068299490+0530)/</t>
-  </si>
-  <si>
-    <t>/Date(1708068300920+0530)/</t>
-  </si>
-  <si>
-    <t>/Date(1708068302227+0530)/</t>
-  </si>
-  <si>
-    <t>Order rejected by RMS as margin required is Rs229773.5, while available margin is Rs20221.79</t>
-  </si>
-  <si>
-    <t>/Date(1708068315217+0530)/</t>
-  </si>
-  <si>
-    <t>/Date(1708068318250+0530)/</t>
-  </si>
-  <si>
-    <t>/Date(1708068328760+0530)/</t>
-  </si>
-  <si>
-    <t>NIFTY 07 Mar 2024 CE 22350.00</t>
-  </si>
-  <si>
-    <t>/Date(1709623394230+0530)/</t>
-  </si>
-  <si>
-    <t>/Date(1709623394000+0530)/</t>
-  </si>
-  <si>
     <t>/Date(1709697672953+0530)/</t>
   </si>
   <si>
@@ -688,6 +646,54 @@
   </si>
   <si>
     <t>/Date(1709712722000+0530)/</t>
+  </si>
+  <si>
+    <t>/Date(1709720047530+0530)/</t>
+  </si>
+  <si>
+    <t>Exchange is closed. Cannot place your order.</t>
+  </si>
+  <si>
+    <t>BANKNIFTY 13 Mar 2024 CE 48000.00</t>
+  </si>
+  <si>
+    <t>/Date(1709720048590+0530)/</t>
+  </si>
+  <si>
+    <t>BANKNIFTY 13 Mar 2024 PE 48000.00</t>
+  </si>
+  <si>
+    <t>/Date(1709720050720+0530)/</t>
+  </si>
+  <si>
+    <t>NIFTY 07 Mar 2024 CE 22450.00</t>
+  </si>
+  <si>
+    <t>/Date(1709720052477+0530)/</t>
+  </si>
+  <si>
+    <t>/Date(1709720130777+0530)/</t>
+  </si>
+  <si>
+    <t>/Date(1709720131717+0530)/</t>
+  </si>
+  <si>
+    <t>/Date(1709720133823+0530)/</t>
+  </si>
+  <si>
+    <t>/Date(1709720134970+0530)/</t>
+  </si>
+  <si>
+    <t>/Date(1709720481913+0530)/</t>
+  </si>
+  <si>
+    <t>/Date(1709720482820+0530)/</t>
+  </si>
+  <si>
+    <t>/Date(1709720484723+0530)/</t>
+  </si>
+  <si>
+    <t>/Date(1709720485917+0530)/</t>
   </si>
 </sst>
 </file>
@@ -1135,7 +1141,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BA56"/>
+  <dimension ref="A1:BA67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1316,7 +1322,7 @@
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="B2" t="s">
         <v>38</v>
@@ -1331,10 +1337,10 @@
         <v>41577</v>
       </c>
       <c r="F2" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="G2" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="H2">
         <v>23395</v>
@@ -1367,7 +1373,7 @@
         <v>200</v>
       </c>
       <c r="S2" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -1388,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="AK2">
         <v>0</v>
@@ -1424,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="AV2">
-        <v>31574.25</v>
+        <v>30074.25</v>
       </c>
       <c r="AW2">
         <v>0</v>
@@ -1613,7 +1619,7 @@
         <v>60</v>
       </c>
       <c r="AP21">
-        <v>153</v>
+        <v>271.14999999999998</v>
       </c>
       <c r="AQ21">
         <v>50</v>
@@ -1637,7 +1643,7 @@
         <v>41577</v>
       </c>
       <c r="AX21" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="AY21">
         <v>126.99</v>
@@ -1687,7 +1693,7 @@
         <v>60</v>
       </c>
       <c r="AP22">
-        <v>32.9</v>
+        <v>11.15</v>
       </c>
       <c r="AQ22">
         <v>50</v>
@@ -1711,7 +1717,7 @@
         <v>41610</v>
       </c>
       <c r="AX22" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="AY22">
         <v>79.2</v>
@@ -1761,7 +1767,7 @@
         <v>60</v>
       </c>
       <c r="AP23">
-        <v>65.05</v>
+        <v>20.149999999999999</v>
       </c>
       <c r="AQ23">
         <v>50</v>
@@ -1785,7 +1791,7 @@
         <v>41620</v>
       </c>
       <c r="AX23" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="AY23">
         <v>117</v>
@@ -1835,7 +1841,7 @@
         <v>60</v>
       </c>
       <c r="AP24">
-        <v>757.95</v>
+        <v>637</v>
       </c>
       <c r="AQ24">
         <v>15</v>
@@ -1859,7 +1865,7 @@
         <v>41914</v>
       </c>
       <c r="AX24" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="AY24">
         <v>599.75</v>
@@ -1938,28 +1944,28 @@
     </row>
     <row r="31" spans="30:53" x14ac:dyDescent="0.25">
       <c r="AD31">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="AE31" s="2">
-        <v>45357.570833333331</v>
+        <v>45357.660416666666</v>
       </c>
       <c r="AF31" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AG31" t="s">
         <v>61</v>
       </c>
       <c r="AH31">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AI31">
         <v>100</v>
       </c>
       <c r="AJ31">
-        <v>148.07499999999999</v>
+        <v>0</v>
       </c>
       <c r="AK31">
-        <v>0</v>
+        <v>11.15</v>
       </c>
       <c r="AL31">
         <v>0</v>
@@ -1968,13 +1974,16 @@
         <v>38</v>
       </c>
       <c r="AN31">
-        <v>41577</v>
+        <v>41610</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>200</v>
       </c>
       <c r="AP31" t="s">
         <v>60</v>
       </c>
       <c r="AQ31">
-        <v>1000000146169860</v>
+        <v>0</v>
       </c>
       <c r="AR31">
         <v>2</v>
@@ -1983,18 +1992,18 @@
         <v>45357</v>
       </c>
       <c r="AT31" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="AU31" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="30:53" x14ac:dyDescent="0.25">
       <c r="AD32">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="AE32" s="2">
-        <v>45357.568749999999</v>
+        <v>45357.660416666666</v>
       </c>
       <c r="AF32" t="s">
         <v>108</v>
@@ -2003,16 +2012,16 @@
         <v>61</v>
       </c>
       <c r="AH32">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AI32">
         <v>100</v>
       </c>
       <c r="AJ32">
-        <v>122.5</v>
+        <v>0</v>
       </c>
       <c r="AK32">
-        <v>122.5</v>
+        <v>100</v>
       </c>
       <c r="AL32">
         <v>0</v>
@@ -2021,13 +2030,16 @@
         <v>38</v>
       </c>
       <c r="AN32">
-        <v>41577</v>
+        <v>41639</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>200</v>
       </c>
       <c r="AP32" t="s">
         <v>60</v>
       </c>
       <c r="AQ32">
-        <v>1000000143702500</v>
+        <v>0</v>
       </c>
       <c r="AR32">
         <v>2</v>
@@ -2036,7 +2048,7 @@
         <v>45357</v>
       </c>
       <c r="AT32" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="AU32" t="s">
         <v>38</v>
@@ -2044,28 +2056,28 @@
     </row>
     <row r="33" spans="30:47" x14ac:dyDescent="0.25">
       <c r="AD33">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="AE33" s="2">
-        <v>45357.557638888888</v>
+        <v>45357.660416666666</v>
       </c>
       <c r="AF33" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AG33" t="s">
         <v>61</v>
       </c>
       <c r="AH33">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="AI33">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="AJ33">
         <v>0</v>
       </c>
       <c r="AK33">
-        <v>103.6</v>
+        <v>450</v>
       </c>
       <c r="AL33">
         <v>0</v>
@@ -2074,7 +2086,7 @@
         <v>38</v>
       </c>
       <c r="AN33">
-        <v>41577</v>
+        <v>41935</v>
       </c>
       <c r="AO33" t="s">
         <v>200</v>
@@ -2086,13 +2098,13 @@
         <v>0</v>
       </c>
       <c r="AR33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS33" s="3">
         <v>45357</v>
       </c>
       <c r="AT33" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="AU33" t="s">
         <v>38</v>
@@ -2100,28 +2112,28 @@
     </row>
     <row r="34" spans="30:47" x14ac:dyDescent="0.25">
       <c r="AD34">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="AE34" s="2">
-        <v>45357.557638888888</v>
+        <v>45357.660416666666</v>
       </c>
       <c r="AF34" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AG34" t="s">
         <v>61</v>
       </c>
       <c r="AH34">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="AI34">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="AJ34">
         <v>0</v>
       </c>
       <c r="AK34">
-        <v>104.5</v>
+        <v>407.05</v>
       </c>
       <c r="AL34">
         <v>0</v>
@@ -2130,7 +2142,7 @@
         <v>38</v>
       </c>
       <c r="AN34">
-        <v>41577</v>
+        <v>41927</v>
       </c>
       <c r="AO34" t="s">
         <v>200</v>
@@ -2142,13 +2154,13 @@
         <v>0</v>
       </c>
       <c r="AR34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS34" s="3">
         <v>45357</v>
       </c>
       <c r="AT34" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="AU34" t="s">
         <v>38</v>
@@ -2156,13 +2168,13 @@
     </row>
     <row r="35" spans="30:47" x14ac:dyDescent="0.25">
       <c r="AD35">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="AE35" s="2">
-        <v>45357.557638888888</v>
+        <v>45357.65625</v>
       </c>
       <c r="AF35" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AG35" t="s">
         <v>61</v>
@@ -2177,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="AK35">
-        <v>104.7</v>
+        <v>11.15</v>
       </c>
       <c r="AL35">
         <v>0</v>
@@ -2186,7 +2198,7 @@
         <v>38</v>
       </c>
       <c r="AN35">
-        <v>41577</v>
+        <v>41610</v>
       </c>
       <c r="AO35" t="s">
         <v>200</v>
@@ -2204,7 +2216,7 @@
         <v>45357</v>
       </c>
       <c r="AT35" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="AU35" t="s">
         <v>38</v>
@@ -2212,13 +2224,13 @@
     </row>
     <row r="36" spans="30:47" x14ac:dyDescent="0.25">
       <c r="AD36">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="AE36" s="2">
-        <v>45357.557638888888</v>
+        <v>45357.65625</v>
       </c>
       <c r="AF36" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AG36" t="s">
         <v>61</v>
@@ -2233,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="AK36">
-        <v>105.15</v>
+        <v>100</v>
       </c>
       <c r="AL36">
         <v>0</v>
@@ -2242,7 +2254,7 @@
         <v>38</v>
       </c>
       <c r="AN36">
-        <v>41577</v>
+        <v>41639</v>
       </c>
       <c r="AO36" t="s">
         <v>200</v>
@@ -2260,7 +2272,7 @@
         <v>45357</v>
       </c>
       <c r="AT36" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="AU36" t="s">
         <v>38</v>
@@ -2268,28 +2280,28 @@
     </row>
     <row r="37" spans="30:47" x14ac:dyDescent="0.25">
       <c r="AD37">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="AE37" s="2">
-        <v>45357.557638888888</v>
+        <v>45357.65625</v>
       </c>
       <c r="AF37" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AG37" t="s">
         <v>61</v>
       </c>
       <c r="AH37">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI37">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="AJ37">
-        <v>105.9</v>
+        <v>0</v>
       </c>
       <c r="AK37">
-        <v>105.9</v>
+        <v>450</v>
       </c>
       <c r="AL37">
         <v>0</v>
@@ -2298,13 +2310,16 @@
         <v>38</v>
       </c>
       <c r="AN37">
-        <v>41577</v>
+        <v>41935</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>200</v>
       </c>
       <c r="AP37" t="s">
         <v>60</v>
       </c>
       <c r="AQ37">
-        <v>1000000137278300</v>
+        <v>0</v>
       </c>
       <c r="AR37">
         <v>2</v>
@@ -2313,7 +2328,7 @@
         <v>45357</v>
       </c>
       <c r="AT37" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="AU37" t="s">
         <v>38</v>
@@ -2321,10 +2336,10 @@
     </row>
     <row r="38" spans="30:47" x14ac:dyDescent="0.25">
       <c r="AD38">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AE38" s="2">
-        <v>45357.552083333336</v>
+        <v>45357.65625</v>
       </c>
       <c r="AF38" t="s">
         <v>108</v>
@@ -2333,16 +2348,16 @@
         <v>61</v>
       </c>
       <c r="AH38">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI38">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="AJ38">
-        <v>111.45</v>
+        <v>0</v>
       </c>
       <c r="AK38">
-        <v>112.5</v>
+        <v>407.05</v>
       </c>
       <c r="AL38">
         <v>0</v>
@@ -2351,13 +2366,16 @@
         <v>38</v>
       </c>
       <c r="AN38">
-        <v>41577</v>
+        <v>41927</v>
+      </c>
+      <c r="AO38" t="s">
+        <v>200</v>
       </c>
       <c r="AP38" t="s">
         <v>60</v>
       </c>
       <c r="AQ38">
-        <v>1000000133653810</v>
+        <v>0</v>
       </c>
       <c r="AR38">
         <v>2</v>
@@ -2366,7 +2384,7 @@
         <v>45357</v>
       </c>
       <c r="AT38" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="AU38" t="s">
         <v>38</v>
@@ -2374,28 +2392,28 @@
     </row>
     <row r="39" spans="30:47" x14ac:dyDescent="0.25">
       <c r="AD39">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AE39" s="2">
-        <v>45357.508333333331</v>
+        <v>45357.655555555553</v>
       </c>
       <c r="AF39" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AG39" t="s">
         <v>61</v>
       </c>
       <c r="AH39">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI39">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="AJ39">
-        <v>79.2</v>
+        <v>0</v>
       </c>
       <c r="AK39">
-        <v>78.599999999999994</v>
+        <v>450</v>
       </c>
       <c r="AL39">
         <v>0</v>
@@ -2404,13 +2422,16 @@
         <v>38</v>
       </c>
       <c r="AN39">
-        <v>41610</v>
+        <v>41935</v>
+      </c>
+      <c r="AO39" t="s">
+        <v>200</v>
       </c>
       <c r="AP39" t="s">
         <v>60</v>
       </c>
       <c r="AQ39">
-        <v>1100000119603260</v>
+        <v>0</v>
       </c>
       <c r="AR39">
         <v>2</v>
@@ -2419,7 +2440,7 @@
         <v>45357</v>
       </c>
       <c r="AT39" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AU39" t="s">
         <v>38</v>
@@ -2427,10 +2448,10 @@
     </row>
     <row r="40" spans="30:47" x14ac:dyDescent="0.25">
       <c r="AD40">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AE40" s="2">
-        <v>45357.50277777778</v>
+        <v>45357.655555555553</v>
       </c>
       <c r="AF40" t="s">
         <v>108</v>
@@ -2439,16 +2460,16 @@
         <v>61</v>
       </c>
       <c r="AH40">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI40">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="AJ40">
-        <v>97.9</v>
+        <v>0</v>
       </c>
       <c r="AK40">
-        <v>97.95</v>
+        <v>407.05</v>
       </c>
       <c r="AL40">
         <v>0</v>
@@ -2457,13 +2478,16 @@
         <v>38</v>
       </c>
       <c r="AN40">
-        <v>41610</v>
+        <v>41927</v>
+      </c>
+      <c r="AO40" t="s">
+        <v>200</v>
       </c>
       <c r="AP40" t="s">
         <v>60</v>
       </c>
       <c r="AQ40">
-        <v>1100000115077850</v>
+        <v>0</v>
       </c>
       <c r="AR40">
         <v>2</v>
@@ -2472,7 +2496,7 @@
         <v>45357</v>
       </c>
       <c r="AT40" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="AU40" t="s">
         <v>38</v>
@@ -2480,28 +2504,28 @@
     </row>
     <row r="41" spans="30:47" x14ac:dyDescent="0.25">
       <c r="AD41">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="AE41" s="2">
-        <v>45357.404166666667</v>
+        <v>45357.655555555553</v>
       </c>
       <c r="AF41" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AG41" t="s">
         <v>61</v>
       </c>
       <c r="AH41">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AI41">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="AJ41">
-        <v>610</v>
+        <v>0</v>
       </c>
       <c r="AK41">
-        <v>610</v>
+        <v>11.15</v>
       </c>
       <c r="AL41">
         <v>0</v>
@@ -2510,22 +2534,25 @@
         <v>38</v>
       </c>
       <c r="AN41">
-        <v>41914</v>
+        <v>41610</v>
+      </c>
+      <c r="AO41" t="s">
+        <v>200</v>
       </c>
       <c r="AP41" t="s">
         <v>60</v>
       </c>
       <c r="AQ41">
-        <v>1400000019385280</v>
+        <v>0</v>
       </c>
       <c r="AR41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS41" s="3">
         <v>45357</v>
       </c>
       <c r="AT41" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="AU41" t="s">
         <v>38</v>
@@ -2533,28 +2560,28 @@
     </row>
     <row r="42" spans="30:47" x14ac:dyDescent="0.25">
       <c r="AD42">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="AE42" s="2">
-        <v>45357.404166666667</v>
+        <v>45357.655555555553</v>
       </c>
       <c r="AF42" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AG42" t="s">
         <v>61</v>
       </c>
       <c r="AH42">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AI42">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="AJ42">
-        <v>589.5</v>
+        <v>0</v>
       </c>
       <c r="AK42">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AL42">
         <v>0</v>
@@ -2563,36 +2590,39 @@
         <v>38</v>
       </c>
       <c r="AN42">
-        <v>41914</v>
+        <v>41639</v>
+      </c>
+      <c r="AO42" t="s">
+        <v>200</v>
       </c>
       <c r="AP42" t="s">
         <v>60</v>
       </c>
       <c r="AQ42">
-        <v>1400000019531110</v>
+        <v>0</v>
       </c>
       <c r="AR42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS42" s="3">
         <v>45357</v>
       </c>
       <c r="AT42" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="AU42" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="30:47" x14ac:dyDescent="0.25">
       <c r="AD43">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="AE43" s="2">
-        <v>45357.40347222222</v>
+        <v>45357.570833333331</v>
       </c>
       <c r="AF43" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AG43" t="s">
         <v>61</v>
@@ -2601,13 +2631,13 @@
         <v>0</v>
       </c>
       <c r="AI43">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="AJ43">
-        <v>566.79999999999995</v>
+        <v>148.07499999999999</v>
       </c>
       <c r="AK43">
-        <v>569.95000000000005</v>
+        <v>0</v>
       </c>
       <c r="AL43">
         <v>0</v>
@@ -2616,13 +2646,13 @@
         <v>38</v>
       </c>
       <c r="AN43">
-        <v>41914</v>
+        <v>41577</v>
       </c>
       <c r="AP43" t="s">
         <v>60</v>
       </c>
       <c r="AQ43">
-        <v>1400000018611760</v>
+        <v>1000000146169860</v>
       </c>
       <c r="AR43">
         <v>2</v>
@@ -2631,36 +2661,36 @@
         <v>45357</v>
       </c>
       <c r="AT43" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AU43" t="s">
-        <v>38</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="30:47" x14ac:dyDescent="0.25">
       <c r="AD44">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AE44" s="2">
-        <v>45357.399305555555</v>
+        <v>45357.568749999999</v>
       </c>
       <c r="AF44" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AG44" t="s">
         <v>61</v>
       </c>
       <c r="AH44">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AI44">
         <v>100</v>
       </c>
       <c r="AJ44">
-        <v>0</v>
+        <v>122.5</v>
       </c>
       <c r="AK44">
-        <v>108.65</v>
+        <v>122.5</v>
       </c>
       <c r="AL44">
         <v>0</v>
@@ -2669,16 +2699,13 @@
         <v>38</v>
       </c>
       <c r="AN44">
-        <v>41620</v>
-      </c>
-      <c r="AO44" t="s">
-        <v>181</v>
+        <v>41577</v>
       </c>
       <c r="AP44" t="s">
         <v>60</v>
       </c>
       <c r="AQ44">
-        <v>0</v>
+        <v>1000000143702500</v>
       </c>
       <c r="AR44">
         <v>2</v>
@@ -2687,7 +2714,7 @@
         <v>45357</v>
       </c>
       <c r="AT44" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="AU44" t="s">
         <v>38</v>
@@ -2695,10 +2722,10 @@
     </row>
     <row r="45" spans="30:47" x14ac:dyDescent="0.25">
       <c r="AD45">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AE45" s="2">
-        <v>45357.399305555555</v>
+        <v>45357.557638888888</v>
       </c>
       <c r="AF45" t="s">
         <v>111</v>
@@ -2707,16 +2734,16 @@
         <v>61</v>
       </c>
       <c r="AH45">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AI45">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AJ45">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="AK45">
-        <v>112</v>
+        <v>105.15</v>
       </c>
       <c r="AL45">
         <v>0</v>
@@ -2725,22 +2752,25 @@
         <v>38</v>
       </c>
       <c r="AN45">
-        <v>41620</v>
+        <v>41577</v>
+      </c>
+      <c r="AO45" t="s">
+        <v>186</v>
       </c>
       <c r="AP45" t="s">
         <v>60</v>
       </c>
       <c r="AQ45">
-        <v>1100000011726420</v>
+        <v>0</v>
       </c>
       <c r="AR45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS45" s="3">
         <v>45357</v>
       </c>
       <c r="AT45" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="AU45" t="s">
         <v>38</v>
@@ -2748,10 +2778,10 @@
     </row>
     <row r="46" spans="30:47" x14ac:dyDescent="0.25">
       <c r="AD46">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="AE46" s="2">
-        <v>45357.399305555555</v>
+        <v>45357.557638888888</v>
       </c>
       <c r="AF46" t="s">
         <v>111</v>
@@ -2769,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="AK46">
-        <v>109.05</v>
+        <v>103.6</v>
       </c>
       <c r="AL46">
         <v>0</v>
@@ -2778,10 +2808,10 @@
         <v>38</v>
       </c>
       <c r="AN46">
-        <v>41620</v>
+        <v>41577</v>
       </c>
       <c r="AO46" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="AP46" t="s">
         <v>60</v>
@@ -2796,7 +2826,7 @@
         <v>45357</v>
       </c>
       <c r="AT46" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="AU46" t="s">
         <v>38</v>
@@ -2804,10 +2834,10 @@
     </row>
     <row r="47" spans="30:47" x14ac:dyDescent="0.25">
       <c r="AD47">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="AE47" s="2">
-        <v>45357.399305555555</v>
+        <v>45357.557638888888</v>
       </c>
       <c r="AF47" t="s">
         <v>111</v>
@@ -2825,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="AK47">
-        <v>110</v>
+        <v>104.5</v>
       </c>
       <c r="AL47">
         <v>0</v>
@@ -2834,10 +2864,10 @@
         <v>38</v>
       </c>
       <c r="AN47">
-        <v>41620</v>
+        <v>41577</v>
       </c>
       <c r="AO47" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="AP47" t="s">
         <v>60</v>
@@ -2852,7 +2882,7 @@
         <v>45357</v>
       </c>
       <c r="AT47" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="AU47" t="s">
         <v>38</v>
@@ -2860,10 +2890,10 @@
     </row>
     <row r="48" spans="30:47" x14ac:dyDescent="0.25">
       <c r="AD48">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="AE48" s="2">
-        <v>45357.399305555555</v>
+        <v>45357.557638888888</v>
       </c>
       <c r="AF48" t="s">
         <v>111</v>
@@ -2881,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="AK48">
-        <v>112</v>
+        <v>104.7</v>
       </c>
       <c r="AL48">
         <v>0</v>
@@ -2890,10 +2920,10 @@
         <v>38</v>
       </c>
       <c r="AN48">
-        <v>41620</v>
+        <v>41577</v>
       </c>
       <c r="AO48" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="AP48" t="s">
         <v>60</v>
@@ -2908,7 +2938,7 @@
         <v>45357</v>
       </c>
       <c r="AT48" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="AU48" t="s">
         <v>38</v>
@@ -2916,10 +2946,10 @@
     </row>
     <row r="49" spans="30:47" x14ac:dyDescent="0.25">
       <c r="AD49">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="AE49" s="2">
-        <v>45357.399305555555</v>
+        <v>45357.557638888888</v>
       </c>
       <c r="AF49" t="s">
         <v>111</v>
@@ -2928,16 +2958,16 @@
         <v>61</v>
       </c>
       <c r="AH49">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AI49">
         <v>100</v>
       </c>
       <c r="AJ49">
-        <v>0</v>
+        <v>105.9</v>
       </c>
       <c r="AK49">
-        <v>109.95</v>
+        <v>105.9</v>
       </c>
       <c r="AL49">
         <v>0</v>
@@ -2946,16 +2976,13 @@
         <v>38</v>
       </c>
       <c r="AN49">
-        <v>41620</v>
-      </c>
-      <c r="AO49" t="s">
-        <v>170</v>
+        <v>41577</v>
       </c>
       <c r="AP49" t="s">
         <v>60</v>
       </c>
       <c r="AQ49">
-        <v>0</v>
+        <v>1000000137278300</v>
       </c>
       <c r="AR49">
         <v>2</v>
@@ -2964,7 +2991,7 @@
         <v>45357</v>
       </c>
       <c r="AT49" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="AU49" t="s">
         <v>38</v>
@@ -2972,28 +2999,28 @@
     </row>
     <row r="50" spans="30:47" x14ac:dyDescent="0.25">
       <c r="AD50">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AE50" s="2">
-        <v>45357.399305555555</v>
+        <v>45357.552083333336</v>
       </c>
       <c r="AF50" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AG50" t="s">
         <v>61</v>
       </c>
       <c r="AH50">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AI50">
         <v>100</v>
       </c>
       <c r="AJ50">
-        <v>0</v>
+        <v>111.45</v>
       </c>
       <c r="AK50">
-        <v>110.8</v>
+        <v>112.5</v>
       </c>
       <c r="AL50">
         <v>0</v>
@@ -3002,16 +3029,13 @@
         <v>38</v>
       </c>
       <c r="AN50">
-        <v>41620</v>
-      </c>
-      <c r="AO50" t="s">
-        <v>170</v>
+        <v>41577</v>
       </c>
       <c r="AP50" t="s">
         <v>60</v>
       </c>
       <c r="AQ50">
-        <v>0</v>
+        <v>1000000133653810</v>
       </c>
       <c r="AR50">
         <v>2</v>
@@ -3020,7 +3044,7 @@
         <v>45357</v>
       </c>
       <c r="AT50" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="AU50" t="s">
         <v>38</v>
@@ -3028,10 +3052,10 @@
     </row>
     <row r="51" spans="30:47" x14ac:dyDescent="0.25">
       <c r="AD51">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AE51" s="2">
-        <v>45357.399305555555</v>
+        <v>45357.508333333331</v>
       </c>
       <c r="AF51" t="s">
         <v>111</v>
@@ -3040,16 +3064,16 @@
         <v>61</v>
       </c>
       <c r="AH51">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AI51">
         <v>100</v>
       </c>
       <c r="AJ51">
-        <v>0</v>
+        <v>79.2</v>
       </c>
       <c r="AK51">
-        <v>107.8</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="AL51">
         <v>0</v>
@@ -3058,16 +3082,13 @@
         <v>38</v>
       </c>
       <c r="AN51">
-        <v>41620</v>
-      </c>
-      <c r="AO51" t="s">
-        <v>170</v>
+        <v>41610</v>
       </c>
       <c r="AP51" t="s">
         <v>60</v>
       </c>
       <c r="AQ51">
-        <v>0</v>
+        <v>1100000119603260</v>
       </c>
       <c r="AR51">
         <v>2</v>
@@ -3076,7 +3097,7 @@
         <v>45357</v>
       </c>
       <c r="AT51" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="AU51" t="s">
         <v>38</v>
@@ -3084,28 +3105,28 @@
     </row>
     <row r="52" spans="30:47" x14ac:dyDescent="0.25">
       <c r="AD52">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AE52" s="2">
-        <v>45357.399305555555</v>
+        <v>45357.50277777778</v>
       </c>
       <c r="AF52" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AG52" t="s">
         <v>61</v>
       </c>
       <c r="AH52">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AI52">
         <v>100</v>
       </c>
       <c r="AJ52">
-        <v>0</v>
+        <v>97.9</v>
       </c>
       <c r="AK52">
-        <v>108</v>
+        <v>97.95</v>
       </c>
       <c r="AL52">
         <v>0</v>
@@ -3114,16 +3135,13 @@
         <v>38</v>
       </c>
       <c r="AN52">
-        <v>41620</v>
-      </c>
-      <c r="AO52" t="s">
-        <v>170</v>
+        <v>41610</v>
       </c>
       <c r="AP52" t="s">
         <v>60</v>
       </c>
       <c r="AQ52">
-        <v>0</v>
+        <v>1100000115077850</v>
       </c>
       <c r="AR52">
         <v>2</v>
@@ -3132,7 +3150,7 @@
         <v>45357</v>
       </c>
       <c r="AT52" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="AU52" t="s">
         <v>38</v>
@@ -3140,10 +3158,10 @@
     </row>
     <row r="53" spans="30:47" x14ac:dyDescent="0.25">
       <c r="AD53">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AE53" s="2">
-        <v>45357.398611111108</v>
+        <v>45357.404166666667</v>
       </c>
       <c r="AF53" t="s">
         <v>111</v>
@@ -3155,13 +3173,13 @@
         <v>0</v>
       </c>
       <c r="AI53">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="AJ53">
-        <v>122</v>
+        <v>589.5</v>
       </c>
       <c r="AK53">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="AL53">
         <v>0</v>
@@ -3170,13 +3188,13 @@
         <v>38</v>
       </c>
       <c r="AN53">
-        <v>41620</v>
+        <v>41914</v>
       </c>
       <c r="AP53" t="s">
         <v>60</v>
       </c>
       <c r="AQ53">
-        <v>1100000010173720</v>
+        <v>1400000019531110</v>
       </c>
       <c r="AR53">
         <v>1</v>
@@ -3185,18 +3203,18 @@
         <v>45357</v>
       </c>
       <c r="AT53" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AU53" t="s">
-        <v>38</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="30:47" x14ac:dyDescent="0.25">
       <c r="AD54">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="AE54" s="2">
-        <v>45357.398611111108</v>
+        <v>45357.404166666667</v>
       </c>
       <c r="AF54" t="s">
         <v>111</v>
@@ -3205,16 +3223,16 @@
         <v>61</v>
       </c>
       <c r="AH54">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AI54">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="AJ54">
-        <v>0</v>
+        <v>610</v>
       </c>
       <c r="AK54">
-        <v>105.45</v>
+        <v>610</v>
       </c>
       <c r="AL54">
         <v>0</v>
@@ -3223,25 +3241,22 @@
         <v>38</v>
       </c>
       <c r="AN54">
-        <v>41620</v>
-      </c>
-      <c r="AO54" t="s">
-        <v>170</v>
+        <v>41914</v>
       </c>
       <c r="AP54" t="s">
         <v>60</v>
       </c>
       <c r="AQ54">
-        <v>0</v>
+        <v>1400000019385280</v>
       </c>
       <c r="AR54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS54" s="3">
         <v>45357</v>
       </c>
       <c r="AT54" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AU54" t="s">
         <v>38</v>
@@ -3249,10 +3264,10 @@
     </row>
     <row r="55" spans="30:47" x14ac:dyDescent="0.25">
       <c r="AD55">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE55" s="2">
-        <v>45357.396527777775</v>
+        <v>45357.40347222222</v>
       </c>
       <c r="AF55" t="s">
         <v>108</v>
@@ -3264,13 +3279,13 @@
         <v>0</v>
       </c>
       <c r="AI55">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="AJ55">
-        <v>107.25</v>
+        <v>566.79999999999995</v>
       </c>
       <c r="AK55">
-        <v>107.55</v>
+        <v>569.95000000000005</v>
       </c>
       <c r="AL55">
         <v>0</v>
@@ -3279,13 +3294,13 @@
         <v>38</v>
       </c>
       <c r="AN55">
-        <v>41620</v>
+        <v>41914</v>
       </c>
       <c r="AP55" t="s">
         <v>60</v>
       </c>
       <c r="AQ55">
-        <v>1100000008354490</v>
+        <v>1400000018611760</v>
       </c>
       <c r="AR55">
         <v>2</v>
@@ -3294,7 +3309,7 @@
         <v>45357</v>
       </c>
       <c r="AT55" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AU55" t="s">
         <v>38</v>
@@ -3302,28 +3317,28 @@
     </row>
     <row r="56" spans="30:47" x14ac:dyDescent="0.25">
       <c r="AD56">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AE56" s="2">
-        <v>45338.504166666666</v>
+        <v>45357.399305555555</v>
       </c>
       <c r="AF56" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AG56" t="s">
         <v>61</v>
       </c>
       <c r="AH56">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AI56">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AJ56">
-        <v>198.65</v>
+        <v>0</v>
       </c>
       <c r="AK56">
-        <v>198.65</v>
+        <v>109.05</v>
       </c>
       <c r="AL56">
         <v>0</v>
@@ -3332,24 +3347,634 @@
         <v>38</v>
       </c>
       <c r="AN56">
-        <v>35730</v>
+        <v>41620</v>
+      </c>
+      <c r="AO56" t="s">
+        <v>156</v>
       </c>
       <c r="AP56" t="s">
         <v>60</v>
       </c>
       <c r="AQ56">
-        <v>1000000085236980</v>
+        <v>0</v>
       </c>
       <c r="AR56">
+        <v>2</v>
+      </c>
+      <c r="AS56" s="3">
+        <v>45357</v>
+      </c>
+      <c r="AT56" t="s">
+        <v>152</v>
+      </c>
+      <c r="AU56" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="30:47" x14ac:dyDescent="0.25">
+      <c r="AD57">
+        <v>11</v>
+      </c>
+      <c r="AE57" s="2">
+        <v>45357.399305555555</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH57">
+        <v>100</v>
+      </c>
+      <c r="AI57">
+        <v>100</v>
+      </c>
+      <c r="AJ57">
+        <v>0</v>
+      </c>
+      <c r="AK57">
+        <v>108.65</v>
+      </c>
+      <c r="AL57">
+        <v>0</v>
+      </c>
+      <c r="AM57" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN57">
+        <v>41620</v>
+      </c>
+      <c r="AO57" t="s">
+        <v>167</v>
+      </c>
+      <c r="AP57" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ57">
+        <v>0</v>
+      </c>
+      <c r="AR57">
+        <v>2</v>
+      </c>
+      <c r="AS57" s="3">
+        <v>45357</v>
+      </c>
+      <c r="AT57" t="s">
+        <v>152</v>
+      </c>
+      <c r="AU57" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="30:47" x14ac:dyDescent="0.25">
+      <c r="AD58">
+        <v>10</v>
+      </c>
+      <c r="AE58" s="2">
+        <v>45357.399305555555</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>50</v>
+      </c>
+      <c r="AJ58">
+        <v>112</v>
+      </c>
+      <c r="AK58">
+        <v>112</v>
+      </c>
+      <c r="AL58">
+        <v>0</v>
+      </c>
+      <c r="AM58" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN58">
+        <v>41620</v>
+      </c>
+      <c r="AP58" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ58">
+        <v>1100000011726420</v>
+      </c>
+      <c r="AR58">
         <v>1</v>
       </c>
-      <c r="AS56" s="3">
-        <v>45338</v>
-      </c>
-      <c r="AT56" t="s">
-        <v>150</v>
-      </c>
-      <c r="AU56" t="s">
+      <c r="AS58" s="3">
+        <v>45357</v>
+      </c>
+      <c r="AT58" t="s">
+        <v>152</v>
+      </c>
+      <c r="AU58" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="30:47" x14ac:dyDescent="0.25">
+      <c r="AD59">
+        <v>8</v>
+      </c>
+      <c r="AE59" s="2">
+        <v>45357.399305555555</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH59">
+        <v>100</v>
+      </c>
+      <c r="AI59">
+        <v>100</v>
+      </c>
+      <c r="AJ59">
+        <v>0</v>
+      </c>
+      <c r="AK59">
+        <v>110</v>
+      </c>
+      <c r="AL59">
+        <v>0</v>
+      </c>
+      <c r="AM59" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN59">
+        <v>41620</v>
+      </c>
+      <c r="AO59" t="s">
+        <v>156</v>
+      </c>
+      <c r="AP59" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ59">
+        <v>0</v>
+      </c>
+      <c r="AR59">
+        <v>2</v>
+      </c>
+      <c r="AS59" s="3">
+        <v>45357</v>
+      </c>
+      <c r="AT59" t="s">
+        <v>152</v>
+      </c>
+      <c r="AU59" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="30:47" x14ac:dyDescent="0.25">
+      <c r="AD60">
+        <v>7</v>
+      </c>
+      <c r="AE60" s="2">
+        <v>45357.399305555555</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH60">
+        <v>100</v>
+      </c>
+      <c r="AI60">
+        <v>100</v>
+      </c>
+      <c r="AJ60">
+        <v>0</v>
+      </c>
+      <c r="AK60">
+        <v>112</v>
+      </c>
+      <c r="AL60">
+        <v>0</v>
+      </c>
+      <c r="AM60" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN60">
+        <v>41620</v>
+      </c>
+      <c r="AO60" t="s">
+        <v>156</v>
+      </c>
+      <c r="AP60" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ60">
+        <v>0</v>
+      </c>
+      <c r="AR60">
+        <v>2</v>
+      </c>
+      <c r="AS60" s="3">
+        <v>45357</v>
+      </c>
+      <c r="AT60" t="s">
+        <v>152</v>
+      </c>
+      <c r="AU60" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="30:47" x14ac:dyDescent="0.25">
+      <c r="AD61">
+        <v>6</v>
+      </c>
+      <c r="AE61" s="2">
+        <v>45357.399305555555</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH61">
+        <v>100</v>
+      </c>
+      <c r="AI61">
+        <v>100</v>
+      </c>
+      <c r="AJ61">
+        <v>0</v>
+      </c>
+      <c r="AK61">
+        <v>109.95</v>
+      </c>
+      <c r="AL61">
+        <v>0</v>
+      </c>
+      <c r="AM61" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN61">
+        <v>41620</v>
+      </c>
+      <c r="AO61" t="s">
+        <v>156</v>
+      </c>
+      <c r="AP61" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ61">
+        <v>0</v>
+      </c>
+      <c r="AR61">
+        <v>2</v>
+      </c>
+      <c r="AS61" s="3">
+        <v>45357</v>
+      </c>
+      <c r="AT61" t="s">
+        <v>152</v>
+      </c>
+      <c r="AU61" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="30:47" x14ac:dyDescent="0.25">
+      <c r="AD62">
+        <v>5</v>
+      </c>
+      <c r="AE62" s="2">
+        <v>45357.399305555555</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH62">
+        <v>100</v>
+      </c>
+      <c r="AI62">
+        <v>100</v>
+      </c>
+      <c r="AJ62">
+        <v>0</v>
+      </c>
+      <c r="AK62">
+        <v>110.8</v>
+      </c>
+      <c r="AL62">
+        <v>0</v>
+      </c>
+      <c r="AM62" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN62">
+        <v>41620</v>
+      </c>
+      <c r="AO62" t="s">
+        <v>156</v>
+      </c>
+      <c r="AP62" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ62">
+        <v>0</v>
+      </c>
+      <c r="AR62">
+        <v>2</v>
+      </c>
+      <c r="AS62" s="3">
+        <v>45357</v>
+      </c>
+      <c r="AT62" t="s">
+        <v>152</v>
+      </c>
+      <c r="AU62" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="30:47" x14ac:dyDescent="0.25">
+      <c r="AD63">
+        <v>4</v>
+      </c>
+      <c r="AE63" s="2">
+        <v>45357.399305555555</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG63" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH63">
+        <v>100</v>
+      </c>
+      <c r="AI63">
+        <v>100</v>
+      </c>
+      <c r="AJ63">
+        <v>0</v>
+      </c>
+      <c r="AK63">
+        <v>107.8</v>
+      </c>
+      <c r="AL63">
+        <v>0</v>
+      </c>
+      <c r="AM63" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN63">
+        <v>41620</v>
+      </c>
+      <c r="AO63" t="s">
+        <v>156</v>
+      </c>
+      <c r="AP63" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ63">
+        <v>0</v>
+      </c>
+      <c r="AR63">
+        <v>2</v>
+      </c>
+      <c r="AS63" s="3">
+        <v>45357</v>
+      </c>
+      <c r="AT63" t="s">
+        <v>152</v>
+      </c>
+      <c r="AU63" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" spans="30:47" x14ac:dyDescent="0.25">
+      <c r="AD64">
+        <v>3</v>
+      </c>
+      <c r="AE64" s="2">
+        <v>45357.399305555555</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG64" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH64">
+        <v>100</v>
+      </c>
+      <c r="AI64">
+        <v>100</v>
+      </c>
+      <c r="AJ64">
+        <v>0</v>
+      </c>
+      <c r="AK64">
+        <v>108</v>
+      </c>
+      <c r="AL64">
+        <v>0</v>
+      </c>
+      <c r="AM64" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN64">
+        <v>41620</v>
+      </c>
+      <c r="AO64" t="s">
+        <v>156</v>
+      </c>
+      <c r="AP64" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ64">
+        <v>0</v>
+      </c>
+      <c r="AR64">
+        <v>2</v>
+      </c>
+      <c r="AS64" s="3">
+        <v>45357</v>
+      </c>
+      <c r="AT64" t="s">
+        <v>152</v>
+      </c>
+      <c r="AU64" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="30:47" x14ac:dyDescent="0.25">
+      <c r="AD65">
+        <v>2</v>
+      </c>
+      <c r="AE65" s="2">
+        <v>45357.398611111108</v>
+      </c>
+      <c r="AF65" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG65" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH65">
+        <v>100</v>
+      </c>
+      <c r="AI65">
+        <v>100</v>
+      </c>
+      <c r="AJ65">
+        <v>0</v>
+      </c>
+      <c r="AK65">
+        <v>105.45</v>
+      </c>
+      <c r="AL65">
+        <v>0</v>
+      </c>
+      <c r="AM65" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN65">
+        <v>41620</v>
+      </c>
+      <c r="AO65" t="s">
+        <v>156</v>
+      </c>
+      <c r="AP65" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ65">
+        <v>0</v>
+      </c>
+      <c r="AR65">
+        <v>2</v>
+      </c>
+      <c r="AS65" s="3">
+        <v>45357</v>
+      </c>
+      <c r="AT65" t="s">
+        <v>152</v>
+      </c>
+      <c r="AU65" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="30:47" x14ac:dyDescent="0.25">
+      <c r="AD66">
+        <v>1</v>
+      </c>
+      <c r="AE66" s="2">
+        <v>45357.398611111108</v>
+      </c>
+      <c r="AF66" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG66" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>50</v>
+      </c>
+      <c r="AJ66">
+        <v>122</v>
+      </c>
+      <c r="AK66">
+        <v>122</v>
+      </c>
+      <c r="AL66">
+        <v>0</v>
+      </c>
+      <c r="AM66" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN66">
+        <v>41620</v>
+      </c>
+      <c r="AP66" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ66">
+        <v>1100000010173720</v>
+      </c>
+      <c r="AR66">
+        <v>1</v>
+      </c>
+      <c r="AS66" s="3">
+        <v>45357</v>
+      </c>
+      <c r="AT66" t="s">
+        <v>152</v>
+      </c>
+      <c r="AU66" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" spans="30:47" x14ac:dyDescent="0.25">
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67" s="2">
+        <v>45357.396527777775</v>
+      </c>
+      <c r="AF67" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG67" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>100</v>
+      </c>
+      <c r="AJ67">
+        <v>107.25</v>
+      </c>
+      <c r="AK67">
+        <v>107.55</v>
+      </c>
+      <c r="AL67">
+        <v>0</v>
+      </c>
+      <c r="AM67" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN67">
+        <v>41620</v>
+      </c>
+      <c r="AP67" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ67">
+        <v>1100000008354490</v>
+      </c>
+      <c r="AR67">
+        <v>2</v>
+      </c>
+      <c r="AS67" s="3">
+        <v>45357</v>
+      </c>
+      <c r="AT67" t="s">
+        <v>152</v>
+      </c>
+      <c r="AU67" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3594,7 +4219,7 @@
         <v>56</v>
       </c>
       <c r="Q1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="R1" t="s">
         <v>77</v>
@@ -3704,25 +4329,25 @@
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45357.570833333331</v>
+        <v>45357.660416666666</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
         <v>61</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2">
         <v>100</v>
       </c>
       <c r="F2">
-        <v>148.07499999999999</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>11.15</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -3731,13 +4356,16 @@
         <v>38</v>
       </c>
       <c r="J2">
-        <v>41577</v>
+        <v>41610</v>
+      </c>
+      <c r="K2" t="s">
+        <v>200</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
       </c>
       <c r="M2">
-        <v>1000000146169860</v>
+        <v>0</v>
       </c>
       <c r="N2" s="3">
         <v>2</v>
@@ -3746,10 +4374,10 @@
         <v>45357</v>
       </c>
       <c r="P2" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="Q2" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="R2" t="s">
         <v>38</v>
@@ -3764,7 +4392,7 @@
         <v>106495053</v>
       </c>
       <c r="V2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="W2" t="s">
         <v>108</v>
@@ -3782,7 +4410,7 @@
         <v>1100000008354490</v>
       </c>
       <c r="AB2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="AC2" t="s">
         <v>60</v>
@@ -3839,7 +4467,7 @@
         <v>41620</v>
       </c>
       <c r="AW2" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="AX2">
         <v>49658</v>
@@ -3853,7 +4481,7 @@
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45357.568749999999</v>
+        <v>45357.660416666666</v>
       </c>
       <c r="B3" t="s">
         <v>108</v>
@@ -3862,16 +4490,16 @@
         <v>61</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E3">
         <v>100</v>
       </c>
       <c r="F3">
-        <v>122.5</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>122.5</v>
+        <v>100</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -3880,13 +4508,16 @@
         <v>38</v>
       </c>
       <c r="J3">
-        <v>41577</v>
+        <v>41639</v>
+      </c>
+      <c r="K3" t="s">
+        <v>200</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
       </c>
       <c r="M3">
-        <v>1000000143702500</v>
+        <v>0</v>
       </c>
       <c r="N3" s="3">
         <v>2</v>
@@ -3895,7 +4526,7 @@
         <v>45357</v>
       </c>
       <c r="P3" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="Q3" t="s">
         <v>38</v>
@@ -3913,7 +4544,7 @@
         <v>106501599</v>
       </c>
       <c r="V3" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="W3" t="s">
         <v>111</v>
@@ -3931,7 +4562,7 @@
         <v>1100000010173720</v>
       </c>
       <c r="AB3" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="AC3" t="s">
         <v>60</v>
@@ -3991,7 +4622,7 @@
         <v>41620</v>
       </c>
       <c r="AW3" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="AX3">
         <v>49667</v>
@@ -4005,25 +4636,25 @@
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45357.557638888888</v>
+        <v>45357.660416666666</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C4" t="s">
         <v>61</v>
       </c>
       <c r="D4">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="E4">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>103.6</v>
+        <v>450</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -4032,7 +4663,7 @@
         <v>38</v>
       </c>
       <c r="J4">
-        <v>41577</v>
+        <v>41935</v>
       </c>
       <c r="K4" t="s">
         <v>200</v>
@@ -4044,13 +4675,13 @@
         <v>0</v>
       </c>
       <c r="N4" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O4" s="3">
         <v>45357</v>
       </c>
       <c r="P4" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="Q4" t="s">
         <v>38</v>
@@ -4068,7 +4699,7 @@
         <v>106503721</v>
       </c>
       <c r="V4" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="W4" t="s">
         <v>111</v>
@@ -4119,7 +4750,7 @@
         <v>105.45</v>
       </c>
       <c r="AM4" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="AO4" t="s">
         <v>110</v>
@@ -4146,7 +4777,7 @@
         <v>41620</v>
       </c>
       <c r="AW4" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="AX4">
         <v>0</v>
@@ -4160,25 +4791,25 @@
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45357.557638888888</v>
+        <v>45357.660416666666</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C5" t="s">
         <v>61</v>
       </c>
       <c r="D5">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="E5">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>104.5</v>
+        <v>407.05</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -4187,7 +4818,7 @@
         <v>38</v>
       </c>
       <c r="J5">
-        <v>41577</v>
+        <v>41927</v>
       </c>
       <c r="K5" t="s">
         <v>200</v>
@@ -4199,13 +4830,13 @@
         <v>0</v>
       </c>
       <c r="N5" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O5" s="3">
         <v>45357</v>
       </c>
       <c r="P5" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Q5" t="s">
         <v>38</v>
@@ -4223,7 +4854,7 @@
         <v>106504129</v>
       </c>
       <c r="V5" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="W5" t="s">
         <v>111</v>
@@ -4274,7 +4905,7 @@
         <v>108</v>
       </c>
       <c r="AM5" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="AO5" t="s">
         <v>110</v>
@@ -4301,7 +4932,7 @@
         <v>41620</v>
       </c>
       <c r="AW5" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="AX5">
         <v>0</v>
@@ -4315,10 +4946,10 @@
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45357.557638888888</v>
+        <v>45357.65625</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C6" t="s">
         <v>61</v>
@@ -4333,7 +4964,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>104.7</v>
+        <v>11.15</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -4342,7 +4973,7 @@
         <v>38</v>
       </c>
       <c r="J6">
-        <v>41577</v>
+        <v>41610</v>
       </c>
       <c r="K6" t="s">
         <v>200</v>
@@ -4360,7 +4991,7 @@
         <v>45357</v>
       </c>
       <c r="P6" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="Q6" t="s">
         <v>38</v>
@@ -4378,7 +5009,7 @@
         <v>106504474</v>
       </c>
       <c r="V6" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="W6" t="s">
         <v>111</v>
@@ -4429,7 +5060,7 @@
         <v>107.8</v>
       </c>
       <c r="AM6" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="AO6" t="s">
         <v>110</v>
@@ -4456,7 +5087,7 @@
         <v>41620</v>
       </c>
       <c r="AW6" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="AX6">
         <v>0</v>
@@ -4470,10 +5101,10 @@
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>45357.557638888888</v>
+        <v>45357.65625</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C7" t="s">
         <v>61</v>
@@ -4488,7 +5119,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>105.15</v>
+        <v>100</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -4497,7 +5128,7 @@
         <v>38</v>
       </c>
       <c r="J7">
-        <v>41577</v>
+        <v>41639</v>
       </c>
       <c r="K7" t="s">
         <v>200</v>
@@ -4515,7 +5146,7 @@
         <v>45357</v>
       </c>
       <c r="P7" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="Q7" t="s">
         <v>38</v>
@@ -4533,7 +5164,7 @@
         <v>106504799</v>
       </c>
       <c r="V7" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="W7" t="s">
         <v>111</v>
@@ -4584,7 +5215,7 @@
         <v>110.8</v>
       </c>
       <c r="AM7" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="AO7" t="s">
         <v>110</v>
@@ -4611,7 +5242,7 @@
         <v>41620</v>
       </c>
       <c r="AW7" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="AX7">
         <v>0</v>
@@ -4625,25 +5256,25 @@
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>45357.557638888888</v>
+        <v>45357.65625</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C8" t="s">
         <v>61</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E8">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F8">
-        <v>105.9</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>105.9</v>
+        <v>450</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4652,13 +5283,16 @@
         <v>38</v>
       </c>
       <c r="J8">
-        <v>41577</v>
+        <v>41935</v>
+      </c>
+      <c r="K8" t="s">
+        <v>200</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
       </c>
       <c r="M8">
-        <v>1000000137278300</v>
+        <v>0</v>
       </c>
       <c r="N8" s="3">
         <v>2</v>
@@ -4667,7 +5301,7 @@
         <v>45357</v>
       </c>
       <c r="P8" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="Q8" t="s">
         <v>38</v>
@@ -4685,7 +5319,7 @@
         <v>106505098</v>
       </c>
       <c r="V8" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="W8" t="s">
         <v>111</v>
@@ -4736,7 +5370,7 @@
         <v>109.95</v>
       </c>
       <c r="AM8" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="AO8" t="s">
         <v>110</v>
@@ -4763,7 +5397,7 @@
         <v>41620</v>
       </c>
       <c r="AW8" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="AX8">
         <v>0</v>
@@ -4777,7 +5411,7 @@
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>45357.552083333336</v>
+        <v>45357.65625</v>
       </c>
       <c r="B9" t="s">
         <v>108</v>
@@ -4786,16 +5420,16 @@
         <v>61</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E9">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F9">
-        <v>111.45</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>112.5</v>
+        <v>407.05</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -4804,13 +5438,16 @@
         <v>38</v>
       </c>
       <c r="J9">
-        <v>41577</v>
+        <v>41927</v>
+      </c>
+      <c r="K9" t="s">
+        <v>200</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
       </c>
       <c r="M9">
-        <v>1000000133653810</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3">
         <v>2</v>
@@ -4819,7 +5456,7 @@
         <v>45357</v>
       </c>
       <c r="P9" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Q9" t="s">
         <v>38</v>
@@ -4837,7 +5474,7 @@
         <v>106505410</v>
       </c>
       <c r="V9" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="W9" t="s">
         <v>111</v>
@@ -4888,7 +5525,7 @@
         <v>112</v>
       </c>
       <c r="AM9" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="AO9" t="s">
         <v>110</v>
@@ -4915,7 +5552,7 @@
         <v>41620</v>
       </c>
       <c r="AW9" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="AX9">
         <v>0</v>
@@ -4929,25 +5566,25 @@
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>45357.508333333331</v>
+        <v>45357.655555555553</v>
       </c>
       <c r="B10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C10" t="s">
         <v>61</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E10">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F10">
-        <v>79.2</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>78.599999999999994</v>
+        <v>450</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -4956,13 +5593,16 @@
         <v>38</v>
       </c>
       <c r="J10">
-        <v>41610</v>
+        <v>41935</v>
+      </c>
+      <c r="K10" t="s">
+        <v>200</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
       </c>
       <c r="M10">
-        <v>1100000119603260</v>
+        <v>0</v>
       </c>
       <c r="N10" s="3">
         <v>2</v>
@@ -4971,7 +5611,7 @@
         <v>45357</v>
       </c>
       <c r="P10" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="Q10" t="s">
         <v>38</v>
@@ -4989,7 +5629,7 @@
         <v>106505732</v>
       </c>
       <c r="V10" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="W10" t="s">
         <v>111</v>
@@ -5040,7 +5680,7 @@
         <v>110</v>
       </c>
       <c r="AM10" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="AO10" t="s">
         <v>110</v>
@@ -5067,7 +5707,7 @@
         <v>41620</v>
       </c>
       <c r="AW10" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="AX10">
         <v>0</v>
@@ -5081,7 +5721,7 @@
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>45357.50277777778</v>
+        <v>45357.655555555553</v>
       </c>
       <c r="B11" t="s">
         <v>108</v>
@@ -5090,16 +5730,16 @@
         <v>61</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E11">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F11">
-        <v>97.9</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>97.95</v>
+        <v>407.05</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -5108,13 +5748,16 @@
         <v>38</v>
       </c>
       <c r="J11">
-        <v>41610</v>
+        <v>41927</v>
+      </c>
+      <c r="K11" t="s">
+        <v>200</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
       </c>
       <c r="M11">
-        <v>1100000115077850</v>
+        <v>0</v>
       </c>
       <c r="N11" s="3">
         <v>2</v>
@@ -5123,7 +5766,7 @@
         <v>45357</v>
       </c>
       <c r="P11" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="Q11" t="s">
         <v>38</v>
@@ -5141,7 +5784,7 @@
         <v>106506033</v>
       </c>
       <c r="V11" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="W11" t="s">
         <v>111</v>
@@ -5192,7 +5835,7 @@
         <v>109.05</v>
       </c>
       <c r="AM11" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="AO11" t="s">
         <v>110</v>
@@ -5219,7 +5862,7 @@
         <v>41620</v>
       </c>
       <c r="AW11" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="AX11">
         <v>0</v>
@@ -5233,25 +5876,25 @@
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>45357.404166666667</v>
+        <v>45357.655555555553</v>
       </c>
       <c r="B12" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C12" t="s">
         <v>61</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E12">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="F12">
-        <v>610</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>610</v>
+        <v>11.15</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -5260,22 +5903,25 @@
         <v>38</v>
       </c>
       <c r="J12">
-        <v>41914</v>
+        <v>41610</v>
+      </c>
+      <c r="K12" t="s">
+        <v>200</v>
       </c>
       <c r="L12" t="s">
         <v>60</v>
       </c>
       <c r="M12">
-        <v>1400000019385280</v>
+        <v>0</v>
       </c>
       <c r="N12" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O12" s="3">
         <v>45357</v>
       </c>
       <c r="P12" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="Q12" t="s">
         <v>38</v>
@@ -5293,7 +5939,7 @@
         <v>106506284</v>
       </c>
       <c r="V12" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="W12" t="s">
         <v>111</v>
@@ -5311,7 +5957,7 @@
         <v>1100000011726420</v>
       </c>
       <c r="AB12" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="AC12" t="s">
         <v>60</v>
@@ -5371,7 +6017,7 @@
         <v>41620</v>
       </c>
       <c r="AW12" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="AX12">
         <v>49665</v>
@@ -5385,25 +6031,25 @@
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>45357.404166666667</v>
+        <v>45357.655555555553</v>
       </c>
       <c r="B13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C13" t="s">
         <v>61</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E13">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="F13">
-        <v>589.5</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -5412,25 +6058,28 @@
         <v>38</v>
       </c>
       <c r="J13">
-        <v>41914</v>
+        <v>41639</v>
+      </c>
+      <c r="K13" t="s">
+        <v>200</v>
       </c>
       <c r="L13" t="s">
         <v>60</v>
       </c>
       <c r="M13">
-        <v>1400000019531110</v>
+        <v>0</v>
       </c>
       <c r="N13" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O13" s="3">
         <v>45357</v>
       </c>
       <c r="P13" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="Q13" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="R13" t="s">
         <v>38</v>
@@ -5445,7 +6094,7 @@
         <v>106506308</v>
       </c>
       <c r="V13" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="W13" t="s">
         <v>111</v>
@@ -5496,7 +6145,7 @@
         <v>108.65</v>
       </c>
       <c r="AM13" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="AO13" t="s">
         <v>110</v>
@@ -5523,7 +6172,7 @@
         <v>41620</v>
       </c>
       <c r="AW13" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="AX13">
         <v>0</v>
@@ -5537,10 +6186,10 @@
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>45357.40347222222</v>
+        <v>45357.570833333331</v>
       </c>
       <c r="B14" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C14" t="s">
         <v>61</v>
@@ -5549,13 +6198,13 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="F14">
-        <v>566.79999999999995</v>
+        <v>148.07499999999999</v>
       </c>
       <c r="G14">
-        <v>569.95000000000005</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -5564,13 +6213,13 @@
         <v>38</v>
       </c>
       <c r="J14">
-        <v>41914</v>
+        <v>41577</v>
       </c>
       <c r="L14" t="s">
         <v>60</v>
       </c>
       <c r="M14">
-        <v>1400000018611760</v>
+        <v>1000000146169860</v>
       </c>
       <c r="N14" s="3">
         <v>2</v>
@@ -5579,7 +6228,7 @@
         <v>45357</v>
       </c>
       <c r="P14" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Q14" t="s">
         <v>38</v>
@@ -5597,7 +6246,7 @@
         <v>106520359</v>
       </c>
       <c r="V14" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="W14" t="s">
         <v>108</v>
@@ -5615,7 +6264,7 @@
         <v>1400000018611760</v>
       </c>
       <c r="AB14" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="AC14" t="s">
         <v>60</v>
@@ -5672,7 +6321,7 @@
         <v>41914</v>
       </c>
       <c r="AW14" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="AX14">
         <v>49531</v>
@@ -5686,25 +6335,25 @@
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>45357.399305555555</v>
+        <v>45357.568749999999</v>
       </c>
       <c r="B15" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C15" t="s">
         <v>61</v>
       </c>
       <c r="D15">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>100</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>122.5</v>
       </c>
       <c r="G15">
-        <v>108.65</v>
+        <v>122.5</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -5713,16 +6362,13 @@
         <v>38</v>
       </c>
       <c r="J15">
-        <v>41620</v>
-      </c>
-      <c r="K15" t="s">
-        <v>181</v>
+        <v>41577</v>
       </c>
       <c r="L15" t="s">
         <v>60</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1000000143702500</v>
       </c>
       <c r="N15" s="3">
         <v>2</v>
@@ -5731,7 +6377,7 @@
         <v>45357</v>
       </c>
       <c r="P15" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="Q15" t="s">
         <v>38</v>
@@ -5749,7 +6395,7 @@
         <v>106523080</v>
       </c>
       <c r="V15" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="W15" t="s">
         <v>111</v>
@@ -5767,7 +6413,7 @@
         <v>1400000019385280</v>
       </c>
       <c r="AB15" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="AC15" t="s">
         <v>60</v>
@@ -5827,7 +6473,7 @@
         <v>41914</v>
       </c>
       <c r="AW15" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="AX15">
         <v>49667</v>
@@ -5841,7 +6487,7 @@
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>45357.399305555555</v>
+        <v>45357.557638888888</v>
       </c>
       <c r="B16" t="s">
         <v>111</v>
@@ -5850,16 +6496,16 @@
         <v>61</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E16">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F16">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>112</v>
+        <v>105.15</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -5868,22 +6514,25 @@
         <v>38</v>
       </c>
       <c r="J16">
-        <v>41620</v>
+        <v>41577</v>
+      </c>
+      <c r="K16" t="s">
+        <v>186</v>
       </c>
       <c r="L16" t="s">
         <v>60</v>
       </c>
       <c r="M16">
-        <v>1100000011726420</v>
+        <v>0</v>
       </c>
       <c r="N16" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O16" s="3">
         <v>45357</v>
       </c>
       <c r="P16" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="Q16" t="s">
         <v>38</v>
@@ -5901,7 +6550,7 @@
         <v>106523534</v>
       </c>
       <c r="V16" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="W16" t="s">
         <v>111</v>
@@ -5919,7 +6568,7 @@
         <v>1400000019531110</v>
       </c>
       <c r="AB16" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="AC16" t="s">
         <v>60</v>
@@ -5979,7 +6628,7 @@
         <v>41914</v>
       </c>
       <c r="AW16" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="AX16">
         <v>49665</v>
@@ -5993,7 +6642,7 @@
     </row>
     <row r="17" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>45357.399305555555</v>
+        <v>45357.557638888888</v>
       </c>
       <c r="B17" t="s">
         <v>111</v>
@@ -6011,7 +6660,7 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>109.05</v>
+        <v>103.6</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -6020,10 +6669,10 @@
         <v>38</v>
       </c>
       <c r="J17">
-        <v>41620</v>
+        <v>41577</v>
       </c>
       <c r="K17" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="L17" t="s">
         <v>60</v>
@@ -6038,7 +6687,7 @@
         <v>45357</v>
       </c>
       <c r="P17" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="Q17" t="s">
         <v>38</v>
@@ -6056,7 +6705,7 @@
         <v>106734874</v>
       </c>
       <c r="V17" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="W17" t="s">
         <v>108</v>
@@ -6074,7 +6723,7 @@
         <v>1100000115077850</v>
       </c>
       <c r="AB17" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="AC17" t="s">
         <v>60</v>
@@ -6131,7 +6780,7 @@
         <v>41610</v>
       </c>
       <c r="AW17" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="AX17">
         <v>49658</v>
@@ -6145,7 +6794,7 @@
     </row>
     <row r="18" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>45357.399305555555</v>
+        <v>45357.557638888888</v>
       </c>
       <c r="B18" t="s">
         <v>111</v>
@@ -6163,7 +6812,7 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>110</v>
+        <v>104.5</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -6172,10 +6821,10 @@
         <v>38</v>
       </c>
       <c r="J18">
-        <v>41620</v>
+        <v>41577</v>
       </c>
       <c r="K18" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="L18" t="s">
         <v>60</v>
@@ -6190,7 +6839,7 @@
         <v>45357</v>
       </c>
       <c r="P18" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="Q18" t="s">
         <v>38</v>
@@ -6208,7 +6857,7 @@
         <v>106744146</v>
       </c>
       <c r="V18" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="W18" t="s">
         <v>111</v>
@@ -6226,7 +6875,7 @@
         <v>1100000119603260</v>
       </c>
       <c r="AB18" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="AC18" t="s">
         <v>60</v>
@@ -6283,7 +6932,7 @@
         <v>41610</v>
       </c>
       <c r="AW18" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="AX18">
         <v>49665</v>
@@ -6297,7 +6946,7 @@
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>45357.399305555555</v>
+        <v>45357.557638888888</v>
       </c>
       <c r="B19" t="s">
         <v>111</v>
@@ -6315,7 +6964,7 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>112</v>
+        <v>104.7</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -6324,10 +6973,10 @@
         <v>38</v>
       </c>
       <c r="J19">
-        <v>41620</v>
+        <v>41577</v>
       </c>
       <c r="K19" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="L19" t="s">
         <v>60</v>
@@ -6342,7 +6991,7 @@
         <v>45357</v>
       </c>
       <c r="P19" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="Q19" t="s">
         <v>38</v>
@@ -6360,7 +7009,7 @@
         <v>106808118</v>
       </c>
       <c r="V19" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="W19" t="s">
         <v>108</v>
@@ -6378,7 +7027,7 @@
         <v>1000000133653810</v>
       </c>
       <c r="AB19" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="AC19" t="s">
         <v>60</v>
@@ -6435,7 +7084,7 @@
         <v>41577</v>
       </c>
       <c r="AW19" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="AX19">
         <v>49667</v>
@@ -6449,7 +7098,7 @@
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>45357.399305555555</v>
+        <v>45357.557638888888</v>
       </c>
       <c r="B20" t="s">
         <v>111</v>
@@ -6458,16 +7107,16 @@
         <v>61</v>
       </c>
       <c r="D20">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>100</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>105.9</v>
       </c>
       <c r="G20">
-        <v>109.95</v>
+        <v>105.9</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -6476,16 +7125,13 @@
         <v>38</v>
       </c>
       <c r="J20">
-        <v>41620</v>
-      </c>
-      <c r="K20" t="s">
-        <v>170</v>
+        <v>41577</v>
       </c>
       <c r="L20" t="s">
         <v>60</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1000000137278300</v>
       </c>
       <c r="N20" s="3">
         <v>2</v>
@@ -6494,7 +7140,7 @@
         <v>45357</v>
       </c>
       <c r="P20" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="Q20" t="s">
         <v>38</v>
@@ -6512,7 +7158,7 @@
         <v>106816967</v>
       </c>
       <c r="V20" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="W20" t="s">
         <v>111</v>
@@ -6530,7 +7176,7 @@
         <v>1000000137278300</v>
       </c>
       <c r="AB20" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="AC20" t="s">
         <v>60</v>
@@ -6587,7 +7233,7 @@
         <v>41577</v>
       </c>
       <c r="AW20" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="AX20">
         <v>49665</v>
@@ -6601,25 +7247,25 @@
     </row>
     <row r="21" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>45357.399305555555</v>
+        <v>45357.552083333336</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C21" t="s">
         <v>61</v>
       </c>
       <c r="D21">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>100</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>111.45</v>
       </c>
       <c r="G21">
-        <v>110.8</v>
+        <v>112.5</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -6628,16 +7274,13 @@
         <v>38</v>
       </c>
       <c r="J21">
-        <v>41620</v>
-      </c>
-      <c r="K21" t="s">
-        <v>170</v>
+        <v>41577</v>
       </c>
       <c r="L21" t="s">
         <v>60</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1000000133653810</v>
       </c>
       <c r="N21" s="3">
         <v>2</v>
@@ -6646,7 +7289,7 @@
         <v>45357</v>
       </c>
       <c r="P21" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="Q21" t="s">
         <v>38</v>
@@ -6664,7 +7307,7 @@
         <v>106817034</v>
       </c>
       <c r="V21" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="W21" t="s">
         <v>111</v>
@@ -6715,7 +7358,7 @@
         <v>105.15</v>
       </c>
       <c r="AM21" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="AO21" t="s">
         <v>110</v>
@@ -6742,7 +7385,7 @@
         <v>41577</v>
       </c>
       <c r="AW21" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="AX21">
         <v>0</v>
@@ -6756,7 +7399,7 @@
     </row>
     <row r="22" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>45357.399305555555</v>
+        <v>45357.508333333331</v>
       </c>
       <c r="B22" t="s">
         <v>111</v>
@@ -6765,16 +7408,16 @@
         <v>61</v>
       </c>
       <c r="D22">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>100</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>79.2</v>
       </c>
       <c r="G22">
-        <v>107.8</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -6783,16 +7426,13 @@
         <v>38</v>
       </c>
       <c r="J22">
-        <v>41620</v>
-      </c>
-      <c r="K22" t="s">
-        <v>170</v>
+        <v>41610</v>
       </c>
       <c r="L22" t="s">
         <v>60</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1100000119603260</v>
       </c>
       <c r="N22" s="3">
         <v>2</v>
@@ -6801,7 +7441,7 @@
         <v>45357</v>
       </c>
       <c r="P22" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="Q22" t="s">
         <v>38</v>
@@ -6819,7 +7459,7 @@
         <v>106817109</v>
       </c>
       <c r="V22" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="W22" t="s">
         <v>111</v>
@@ -6870,7 +7510,7 @@
         <v>104.7</v>
       </c>
       <c r="AM22" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="AO22" t="s">
         <v>110</v>
@@ -6897,7 +7537,7 @@
         <v>41577</v>
       </c>
       <c r="AW22" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="AX22">
         <v>0</v>
@@ -6911,25 +7551,25 @@
     </row>
     <row r="23" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>45357.399305555555</v>
+        <v>45357.50277777778</v>
       </c>
       <c r="B23" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C23" t="s">
         <v>61</v>
       </c>
       <c r="D23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>100</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>97.9</v>
       </c>
       <c r="G23">
-        <v>108</v>
+        <v>97.95</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -6938,16 +7578,13 @@
         <v>38</v>
       </c>
       <c r="J23">
-        <v>41620</v>
-      </c>
-      <c r="K23" t="s">
-        <v>170</v>
+        <v>41610</v>
       </c>
       <c r="L23" t="s">
         <v>60</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1100000115077850</v>
       </c>
       <c r="N23" s="3">
         <v>2</v>
@@ -6956,7 +7593,7 @@
         <v>45357</v>
       </c>
       <c r="P23" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="Q23" t="s">
         <v>38</v>
@@ -6974,7 +7611,7 @@
         <v>106817183</v>
       </c>
       <c r="V23" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="W23" t="s">
         <v>111</v>
@@ -7025,7 +7662,7 @@
         <v>104.5</v>
       </c>
       <c r="AM23" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="AO23" t="s">
         <v>110</v>
@@ -7052,7 +7689,7 @@
         <v>41577</v>
       </c>
       <c r="AW23" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="AX23">
         <v>0</v>
@@ -7066,7 +7703,7 @@
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>45357.398611111108</v>
+        <v>45357.404166666667</v>
       </c>
       <c r="B24" t="s">
         <v>111</v>
@@ -7078,13 +7715,13 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F24">
-        <v>122</v>
+        <v>589.5</v>
       </c>
       <c r="G24">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -7093,13 +7730,13 @@
         <v>38</v>
       </c>
       <c r="J24">
-        <v>41620</v>
+        <v>41914</v>
       </c>
       <c r="L24" t="s">
         <v>60</v>
       </c>
       <c r="M24">
-        <v>1100000010173720</v>
+        <v>1400000019531110</v>
       </c>
       <c r="N24" s="3">
         <v>1</v>
@@ -7108,7 +7745,7 @@
         <v>45357</v>
       </c>
       <c r="P24" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q24" t="s">
         <v>38</v>
@@ -7126,7 +7763,7 @@
         <v>106817238</v>
       </c>
       <c r="V24" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="W24" t="s">
         <v>111</v>
@@ -7177,7 +7814,7 @@
         <v>103.6</v>
       </c>
       <c r="AM24" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="AO24" t="s">
         <v>110</v>
@@ -7204,7 +7841,7 @@
         <v>41577</v>
       </c>
       <c r="AW24" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="AX24">
         <v>0</v>
@@ -7218,7 +7855,7 @@
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>45357.398611111108</v>
+        <v>45357.404166666667</v>
       </c>
       <c r="B25" t="s">
         <v>111</v>
@@ -7227,16 +7864,16 @@
         <v>61</v>
       </c>
       <c r="D25">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>610</v>
       </c>
       <c r="G25">
-        <v>105.45</v>
+        <v>610</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -7245,25 +7882,22 @@
         <v>38</v>
       </c>
       <c r="J25">
-        <v>41620</v>
-      </c>
-      <c r="K25" t="s">
-        <v>170</v>
+        <v>41914</v>
       </c>
       <c r="L25" t="s">
         <v>60</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1400000019385280</v>
       </c>
       <c r="N25" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O25" s="3">
         <v>45357</v>
       </c>
       <c r="P25" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q25" t="s">
         <v>38</v>
@@ -7281,7 +7915,7 @@
         <v>106832379</v>
       </c>
       <c r="V25" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="W25" t="s">
         <v>108</v>
@@ -7299,7 +7933,7 @@
         <v>1000000143702500</v>
       </c>
       <c r="AB25" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="AC25" t="s">
         <v>60</v>
@@ -7356,7 +7990,7 @@
         <v>41577</v>
       </c>
       <c r="AW25" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="AX25">
         <v>49667</v>
@@ -7370,7 +8004,7 @@
     </row>
     <row r="26" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>45357.396527777775</v>
+        <v>45357.40347222222</v>
       </c>
       <c r="B26" t="s">
         <v>108</v>
@@ -7382,13 +8016,13 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F26">
-        <v>107.25</v>
+        <v>566.79999999999995</v>
       </c>
       <c r="G26">
-        <v>107.55</v>
+        <v>569.95000000000005</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -7397,13 +8031,13 @@
         <v>38</v>
       </c>
       <c r="J26">
-        <v>41620</v>
+        <v>41914</v>
       </c>
       <c r="L26" t="s">
         <v>60</v>
       </c>
       <c r="M26">
-        <v>1100000008354490</v>
+        <v>1400000018611760</v>
       </c>
       <c r="N26" s="3">
         <v>2</v>
@@ -7412,7 +8046,7 @@
         <v>45357</v>
       </c>
       <c r="P26" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q26" t="s">
         <v>38</v>
@@ -7430,7 +8064,7 @@
         <v>106836818</v>
       </c>
       <c r="V26" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="W26" t="s">
         <v>111</v>
@@ -7448,7 +8082,7 @@
         <v>1000000146169860</v>
       </c>
       <c r="AB26" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="AC26" t="s">
         <v>60</v>
@@ -7508,7 +8142,7 @@
         <v>41577</v>
       </c>
       <c r="AW26" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="AX26">
         <v>49665</v>
@@ -7521,9 +8155,84 @@
       </c>
     </row>
     <row r="27" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
+      <c r="A27" s="2">
+        <v>45357.399305555555</v>
+      </c>
+      <c r="B27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27">
+        <v>100</v>
+      </c>
+      <c r="E27">
+        <v>100</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>109.05</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>38</v>
+      </c>
+      <c r="J27">
+        <v>41620</v>
+      </c>
+      <c r="K27" t="s">
+        <v>156</v>
+      </c>
+      <c r="L27" t="s">
+        <v>60</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>2</v>
+      </c>
+      <c r="O27" s="3">
+        <v>45357</v>
+      </c>
+      <c r="P27" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>38</v>
+      </c>
+      <c r="R27" t="s">
+        <v>38</v>
+      </c>
+      <c r="S27" t="s">
+        <v>38</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>107027186</v>
+      </c>
+      <c r="V27" t="s">
+        <v>199</v>
+      </c>
+      <c r="W27" t="s">
+        <v>108</v>
+      </c>
+      <c r="X27" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>38</v>
+      </c>
       <c r="AA27">
         <v>0</v>
       </c>
@@ -7546,25 +8255,22 @@
         <v>149</v>
       </c>
       <c r="AH27" s="3">
-        <v>45338</v>
+        <v>45357</v>
       </c>
       <c r="AI27">
         <v>0</v>
       </c>
       <c r="AJ27">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="AK27">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="AL27">
-        <v>149</v>
+        <v>407.05</v>
       </c>
       <c r="AM27" t="s">
-        <v>157</v>
-      </c>
-      <c r="AN27">
-        <v>202402161255286</v>
+        <v>200</v>
       </c>
       <c r="AO27" t="s">
         <v>110</v>
@@ -7588,10 +8294,10 @@
         <v>0</v>
       </c>
       <c r="AV27">
-        <v>35734</v>
+        <v>41927</v>
       </c>
       <c r="AW27" t="s">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AX27">
         <v>0</v>
@@ -7604,126 +8310,1756 @@
       </c>
     </row>
     <row r="28" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="AH28" s="3"/>
+      <c r="A28" s="2">
+        <v>45357.399305555555</v>
+      </c>
+      <c r="B28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28">
+        <v>100</v>
+      </c>
+      <c r="E28">
+        <v>100</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>108.65</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>38</v>
+      </c>
+      <c r="J28">
+        <v>41620</v>
+      </c>
+      <c r="K28" t="s">
+        <v>167</v>
+      </c>
+      <c r="L28" t="s">
+        <v>60</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>2</v>
+      </c>
+      <c r="O28" s="3">
+        <v>45357</v>
+      </c>
+      <c r="P28" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>38</v>
+      </c>
+      <c r="R28" t="s">
+        <v>38</v>
+      </c>
+      <c r="S28" t="s">
+        <v>38</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>107027187</v>
+      </c>
+      <c r="V28" t="s">
+        <v>202</v>
+      </c>
+      <c r="W28" t="s">
+        <v>108</v>
+      </c>
+      <c r="X28" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD28">
+        <v>2</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>50645842</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH28" s="3">
+        <v>45357</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
+      </c>
+      <c r="AJ28">
+        <v>30</v>
+      </c>
+      <c r="AK28">
+        <v>30</v>
+      </c>
+      <c r="AL28">
+        <v>450</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>200</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP28">
+        <v>0</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR28">
+        <v>0</v>
+      </c>
+      <c r="AS28">
+        <v>0</v>
+      </c>
+      <c r="AT28">
+        <v>0</v>
+      </c>
+      <c r="AU28">
+        <v>0</v>
+      </c>
+      <c r="AV28">
+        <v>41935</v>
+      </c>
+      <c r="AW28" t="s">
+        <v>203</v>
+      </c>
+      <c r="AX28">
+        <v>0</v>
+      </c>
+      <c r="AY28">
+        <v>0</v>
+      </c>
+      <c r="AZ28" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="AH29" s="3"/>
+      <c r="A29" s="2">
+        <v>45357.399305555555</v>
+      </c>
+      <c r="B29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>50</v>
+      </c>
+      <c r="F29">
+        <v>112</v>
+      </c>
+      <c r="G29">
+        <v>112</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>38</v>
+      </c>
+      <c r="J29">
+        <v>41620</v>
+      </c>
+      <c r="L29" t="s">
+        <v>60</v>
+      </c>
+      <c r="M29">
+        <v>1100000011726420</v>
+      </c>
+      <c r="N29" s="3">
+        <v>1</v>
+      </c>
+      <c r="O29" s="3">
+        <v>45357</v>
+      </c>
+      <c r="P29" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>38</v>
+      </c>
+      <c r="R29" t="s">
+        <v>38</v>
+      </c>
+      <c r="S29" t="s">
+        <v>38</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>107027189</v>
+      </c>
+      <c r="V29" t="s">
+        <v>204</v>
+      </c>
+      <c r="W29" t="s">
+        <v>108</v>
+      </c>
+      <c r="X29" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD29">
+        <v>2</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>50645842</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH29" s="3">
+        <v>45357</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
+        <v>100</v>
+      </c>
+      <c r="AK29">
+        <v>100</v>
+      </c>
+      <c r="AL29">
+        <v>100</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>200</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP29">
+        <v>0</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR29">
+        <v>0</v>
+      </c>
+      <c r="AS29">
+        <v>0</v>
+      </c>
+      <c r="AT29">
+        <v>0</v>
+      </c>
+      <c r="AU29">
+        <v>0</v>
+      </c>
+      <c r="AV29">
+        <v>41639</v>
+      </c>
+      <c r="AW29" t="s">
+        <v>205</v>
+      </c>
+      <c r="AX29">
+        <v>0</v>
+      </c>
+      <c r="AY29">
+        <v>0</v>
+      </c>
+      <c r="AZ29" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="AH30" s="3"/>
+      <c r="A30" s="2">
+        <v>45357.399305555555</v>
+      </c>
+      <c r="B30" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30">
+        <v>100</v>
+      </c>
+      <c r="E30">
+        <v>100</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>110</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
+        <v>38</v>
+      </c>
+      <c r="J30">
+        <v>41620</v>
+      </c>
+      <c r="K30" t="s">
+        <v>156</v>
+      </c>
+      <c r="L30" t="s">
+        <v>60</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>2</v>
+      </c>
+      <c r="O30" s="3">
+        <v>45357</v>
+      </c>
+      <c r="P30" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>38</v>
+      </c>
+      <c r="R30" t="s">
+        <v>38</v>
+      </c>
+      <c r="S30" t="s">
+        <v>38</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>107027191</v>
+      </c>
+      <c r="V30" t="s">
+        <v>206</v>
+      </c>
+      <c r="W30" t="s">
+        <v>108</v>
+      </c>
+      <c r="X30" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD30">
+        <v>2</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>50645842</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH30" s="3">
+        <v>45357</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AJ30">
+        <v>100</v>
+      </c>
+      <c r="AK30">
+        <v>100</v>
+      </c>
+      <c r="AL30">
+        <v>11.15</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>200</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP30">
+        <v>0</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR30">
+        <v>0</v>
+      </c>
+      <c r="AS30">
+        <v>0</v>
+      </c>
+      <c r="AT30">
+        <v>0</v>
+      </c>
+      <c r="AU30">
+        <v>0</v>
+      </c>
+      <c r="AV30">
+        <v>41610</v>
+      </c>
+      <c r="AW30" t="s">
+        <v>177</v>
+      </c>
+      <c r="AX30">
+        <v>0</v>
+      </c>
+      <c r="AY30">
+        <v>0</v>
+      </c>
+      <c r="AZ30" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="AH31" s="3"/>
+      <c r="A31" s="2">
+        <v>45357.399305555555</v>
+      </c>
+      <c r="B31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31">
+        <v>100</v>
+      </c>
+      <c r="E31">
+        <v>100</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>112</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31" t="s">
+        <v>38</v>
+      </c>
+      <c r="J31">
+        <v>41620</v>
+      </c>
+      <c r="K31" t="s">
+        <v>156</v>
+      </c>
+      <c r="L31" t="s">
+        <v>60</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>2</v>
+      </c>
+      <c r="O31" s="3">
+        <v>45357</v>
+      </c>
+      <c r="P31" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>38</v>
+      </c>
+      <c r="R31" t="s">
+        <v>38</v>
+      </c>
+      <c r="S31" t="s">
+        <v>38</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>107027239</v>
+      </c>
+      <c r="V31" t="s">
+        <v>207</v>
+      </c>
+      <c r="W31" t="s">
+        <v>108</v>
+      </c>
+      <c r="X31" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD31">
+        <v>2</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <v>50645842</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH31" s="3">
+        <v>45357</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AJ31">
+        <v>30</v>
+      </c>
+      <c r="AK31">
+        <v>30</v>
+      </c>
+      <c r="AL31">
+        <v>407.05</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>200</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP31">
+        <v>0</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR31">
+        <v>0</v>
+      </c>
+      <c r="AS31">
+        <v>0</v>
+      </c>
+      <c r="AT31">
+        <v>0</v>
+      </c>
+      <c r="AU31">
+        <v>0</v>
+      </c>
+      <c r="AV31">
+        <v>41927</v>
+      </c>
+      <c r="AW31" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX31">
+        <v>0</v>
+      </c>
+      <c r="AY31">
+        <v>0</v>
+      </c>
+      <c r="AZ31" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="32" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="AH32" s="3"/>
-    </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="AH33" s="3"/>
-    </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="AH34" s="3"/>
-    </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="AH35" s="3"/>
-    </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="AH36" s="3"/>
-    </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="AH37" s="3"/>
-    </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="AH38" s="3"/>
-    </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>45357.399305555555</v>
+      </c>
+      <c r="B32" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32">
+        <v>100</v>
+      </c>
+      <c r="E32">
+        <v>100</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>109.95</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
+        <v>38</v>
+      </c>
+      <c r="J32">
+        <v>41620</v>
+      </c>
+      <c r="K32" t="s">
+        <v>156</v>
+      </c>
+      <c r="L32" t="s">
+        <v>60</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>2</v>
+      </c>
+      <c r="O32" s="3">
+        <v>45357</v>
+      </c>
+      <c r="P32" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>38</v>
+      </c>
+      <c r="R32" t="s">
+        <v>38</v>
+      </c>
+      <c r="S32" t="s">
+        <v>38</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>107027240</v>
+      </c>
+      <c r="V32" t="s">
+        <v>208</v>
+      </c>
+      <c r="W32" t="s">
+        <v>108</v>
+      </c>
+      <c r="X32" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD32">
+        <v>2</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>50645842</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH32" s="3">
+        <v>45357</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
+      </c>
+      <c r="AJ32">
+        <v>30</v>
+      </c>
+      <c r="AK32">
+        <v>30</v>
+      </c>
+      <c r="AL32">
+        <v>450</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>200</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP32">
+        <v>0</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR32">
+        <v>0</v>
+      </c>
+      <c r="AS32">
+        <v>0</v>
+      </c>
+      <c r="AT32">
+        <v>0</v>
+      </c>
+      <c r="AU32">
+        <v>0</v>
+      </c>
+      <c r="AV32">
+        <v>41935</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>203</v>
+      </c>
+      <c r="AX32">
+        <v>0</v>
+      </c>
+      <c r="AY32">
+        <v>0</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>45357.399305555555</v>
+      </c>
+      <c r="B33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33">
+        <v>100</v>
+      </c>
+      <c r="E33">
+        <v>100</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>110.8</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33" t="s">
+        <v>38</v>
+      </c>
+      <c r="J33">
+        <v>41620</v>
+      </c>
+      <c r="K33" t="s">
+        <v>156</v>
+      </c>
+      <c r="L33" t="s">
+        <v>60</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
+        <v>2</v>
+      </c>
+      <c r="O33" s="3">
+        <v>45357</v>
+      </c>
+      <c r="P33" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>38</v>
+      </c>
+      <c r="R33" t="s">
+        <v>38</v>
+      </c>
+      <c r="S33" t="s">
+        <v>38</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>107027241</v>
+      </c>
+      <c r="V33" t="s">
+        <v>209</v>
+      </c>
+      <c r="W33" t="s">
+        <v>108</v>
+      </c>
+      <c r="X33" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD33">
+        <v>2</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <v>50645842</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH33" s="3">
+        <v>45357</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AJ33">
+        <v>100</v>
+      </c>
+      <c r="AK33">
+        <v>100</v>
+      </c>
+      <c r="AL33">
+        <v>100</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>200</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP33">
+        <v>0</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR33">
+        <v>0</v>
+      </c>
+      <c r="AS33">
+        <v>0</v>
+      </c>
+      <c r="AT33">
+        <v>0</v>
+      </c>
+      <c r="AU33">
+        <v>0</v>
+      </c>
+      <c r="AV33">
+        <v>41639</v>
+      </c>
+      <c r="AW33" t="s">
+        <v>205</v>
+      </c>
+      <c r="AX33">
+        <v>0</v>
+      </c>
+      <c r="AY33">
+        <v>0</v>
+      </c>
+      <c r="AZ33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>45357.399305555555</v>
+      </c>
+      <c r="B34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34">
+        <v>100</v>
+      </c>
+      <c r="E34">
+        <v>100</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>107.8</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
+        <v>38</v>
+      </c>
+      <c r="J34">
+        <v>41620</v>
+      </c>
+      <c r="K34" t="s">
+        <v>156</v>
+      </c>
+      <c r="L34" t="s">
+        <v>60</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>2</v>
+      </c>
+      <c r="O34" s="3">
+        <v>45357</v>
+      </c>
+      <c r="P34" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>38</v>
+      </c>
+      <c r="R34" t="s">
+        <v>38</v>
+      </c>
+      <c r="S34" t="s">
+        <v>38</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>107027243</v>
+      </c>
+      <c r="V34" t="s">
+        <v>210</v>
+      </c>
+      <c r="W34" t="s">
+        <v>108</v>
+      </c>
+      <c r="X34" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD34">
+        <v>2</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <v>50645842</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH34" s="3">
+        <v>45357</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34">
+        <v>100</v>
+      </c>
+      <c r="AK34">
+        <v>100</v>
+      </c>
+      <c r="AL34">
+        <v>11.15</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>200</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP34">
+        <v>0</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR34">
+        <v>0</v>
+      </c>
+      <c r="AS34">
+        <v>0</v>
+      </c>
+      <c r="AT34">
+        <v>0</v>
+      </c>
+      <c r="AU34">
+        <v>0</v>
+      </c>
+      <c r="AV34">
+        <v>41610</v>
+      </c>
+      <c r="AW34" t="s">
+        <v>177</v>
+      </c>
+      <c r="AX34">
+        <v>0</v>
+      </c>
+      <c r="AY34">
+        <v>0</v>
+      </c>
+      <c r="AZ34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>45357.399305555555</v>
+      </c>
+      <c r="B35" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35">
+        <v>100</v>
+      </c>
+      <c r="E35">
+        <v>100</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>108</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
+        <v>38</v>
+      </c>
+      <c r="J35">
+        <v>41620</v>
+      </c>
+      <c r="K35" t="s">
+        <v>156</v>
+      </c>
+      <c r="L35" t="s">
+        <v>60</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
+        <v>2</v>
+      </c>
+      <c r="O35" s="3">
+        <v>45357</v>
+      </c>
+      <c r="P35" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>38</v>
+      </c>
+      <c r="R35" t="s">
+        <v>38</v>
+      </c>
+      <c r="S35" t="s">
+        <v>38</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>107027385</v>
+      </c>
+      <c r="V35" t="s">
+        <v>211</v>
+      </c>
+      <c r="W35" t="s">
+        <v>108</v>
+      </c>
+      <c r="X35" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD35">
+        <v>3</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AF35">
+        <v>50645842</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH35" s="3">
+        <v>45357</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35">
+        <v>45</v>
+      </c>
+      <c r="AK35">
+        <v>45</v>
+      </c>
+      <c r="AL35">
+        <v>407.05</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>200</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP35">
+        <v>0</v>
+      </c>
+      <c r="AQ35" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR35">
+        <v>0</v>
+      </c>
+      <c r="AS35">
+        <v>0</v>
+      </c>
+      <c r="AT35">
+        <v>0</v>
+      </c>
+      <c r="AU35">
+        <v>0</v>
+      </c>
+      <c r="AV35">
+        <v>41927</v>
+      </c>
+      <c r="AW35" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX35">
+        <v>0</v>
+      </c>
+      <c r="AY35">
+        <v>0</v>
+      </c>
+      <c r="AZ35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>45357.398611111108</v>
+      </c>
+      <c r="B36" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36">
+        <v>100</v>
+      </c>
+      <c r="E36">
+        <v>100</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>105.45</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36" t="s">
+        <v>38</v>
+      </c>
+      <c r="J36">
+        <v>41620</v>
+      </c>
+      <c r="K36" t="s">
+        <v>156</v>
+      </c>
+      <c r="L36" t="s">
+        <v>60</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36" s="3">
+        <v>2</v>
+      </c>
+      <c r="O36" s="3">
+        <v>45357</v>
+      </c>
+      <c r="P36" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>38</v>
+      </c>
+      <c r="R36" t="s">
+        <v>38</v>
+      </c>
+      <c r="S36" t="s">
+        <v>38</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>107027386</v>
+      </c>
+      <c r="V36" t="s">
+        <v>212</v>
+      </c>
+      <c r="W36" t="s">
+        <v>108</v>
+      </c>
+      <c r="X36" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD36">
+        <v>3</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
+      </c>
+      <c r="AF36">
+        <v>50645842</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH36" s="3">
+        <v>45357</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
+      </c>
+      <c r="AJ36">
+        <v>45</v>
+      </c>
+      <c r="AK36">
+        <v>45</v>
+      </c>
+      <c r="AL36">
+        <v>450</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>200</v>
+      </c>
+      <c r="AO36" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP36">
+        <v>0</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR36">
+        <v>0</v>
+      </c>
+      <c r="AS36">
+        <v>0</v>
+      </c>
+      <c r="AT36">
+        <v>0</v>
+      </c>
+      <c r="AU36">
+        <v>0</v>
+      </c>
+      <c r="AV36">
+        <v>41935</v>
+      </c>
+      <c r="AW36" t="s">
+        <v>203</v>
+      </c>
+      <c r="AX36">
+        <v>0</v>
+      </c>
+      <c r="AY36">
+        <v>0</v>
+      </c>
+      <c r="AZ36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>45357.398611111108</v>
+      </c>
+      <c r="B37" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>50</v>
+      </c>
+      <c r="F37">
+        <v>122</v>
+      </c>
+      <c r="G37">
+        <v>122</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37" t="s">
+        <v>38</v>
+      </c>
+      <c r="J37">
+        <v>41620</v>
+      </c>
+      <c r="L37" t="s">
+        <v>60</v>
+      </c>
+      <c r="M37">
+        <v>1100000010173720</v>
+      </c>
+      <c r="N37" s="3">
+        <v>1</v>
+      </c>
+      <c r="O37" s="3">
+        <v>45357</v>
+      </c>
+      <c r="P37" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>38</v>
+      </c>
+      <c r="R37" t="s">
+        <v>38</v>
+      </c>
+      <c r="S37" t="s">
+        <v>38</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>107027388</v>
+      </c>
+      <c r="V37" t="s">
+        <v>213</v>
+      </c>
+      <c r="W37" t="s">
+        <v>108</v>
+      </c>
+      <c r="X37" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD37">
+        <v>2</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
+      </c>
+      <c r="AF37">
+        <v>50645842</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH37" s="3">
+        <v>45357</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
+      </c>
+      <c r="AJ37">
+        <v>100</v>
+      </c>
+      <c r="AK37">
+        <v>100</v>
+      </c>
+      <c r="AL37">
+        <v>100</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>200</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP37">
+        <v>0</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR37">
+        <v>0</v>
+      </c>
+      <c r="AS37">
+        <v>0</v>
+      </c>
+      <c r="AT37">
+        <v>0</v>
+      </c>
+      <c r="AU37">
+        <v>0</v>
+      </c>
+      <c r="AV37">
+        <v>41639</v>
+      </c>
+      <c r="AW37" t="s">
+        <v>205</v>
+      </c>
+      <c r="AX37">
+        <v>0</v>
+      </c>
+      <c r="AY37">
+        <v>0</v>
+      </c>
+      <c r="AZ37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>45357.396527777775</v>
+      </c>
+      <c r="B38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>100</v>
+      </c>
+      <c r="F38">
+        <v>107.25</v>
+      </c>
+      <c r="G38">
+        <v>107.55</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38" t="s">
+        <v>38</v>
+      </c>
+      <c r="J38">
+        <v>41620</v>
+      </c>
+      <c r="L38" t="s">
+        <v>60</v>
+      </c>
+      <c r="M38">
+        <v>1100000008354490</v>
+      </c>
+      <c r="N38" s="3">
+        <v>2</v>
+      </c>
+      <c r="O38" s="3">
+        <v>45357</v>
+      </c>
+      <c r="P38" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>38</v>
+      </c>
+      <c r="R38" t="s">
+        <v>38</v>
+      </c>
+      <c r="S38" t="s">
+        <v>38</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>107027389</v>
+      </c>
+      <c r="V38" t="s">
+        <v>214</v>
+      </c>
+      <c r="W38" t="s">
+        <v>108</v>
+      </c>
+      <c r="X38" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD38">
+        <v>2</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
+      </c>
+      <c r="AF38">
+        <v>50645842</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH38" s="3">
+        <v>45357</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
+      </c>
+      <c r="AJ38">
+        <v>100</v>
+      </c>
+      <c r="AK38">
+        <v>100</v>
+      </c>
+      <c r="AL38">
+        <v>11.15</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>200</v>
+      </c>
+      <c r="AO38" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP38">
+        <v>0</v>
+      </c>
+      <c r="AQ38" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR38">
+        <v>0</v>
+      </c>
+      <c r="AS38">
+        <v>0</v>
+      </c>
+      <c r="AT38">
+        <v>0</v>
+      </c>
+      <c r="AU38">
+        <v>0</v>
+      </c>
+      <c r="AV38">
+        <v>41610</v>
+      </c>
+      <c r="AW38" t="s">
+        <v>177</v>
+      </c>
+      <c r="AX38">
+        <v>0</v>
+      </c>
+      <c r="AY38">
+        <v>0</v>
+      </c>
+      <c r="AZ38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="AH39" s="3"/>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="AH40" s="3"/>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
       <c r="AH41" s="3"/>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
       <c r="AH42" s="3"/>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
       <c r="AH43" s="3"/>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
       <c r="AH44" s="3"/>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
       <c r="AH45" s="3"/>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
       <c r="AH46" s="3"/>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
       <c r="AH47" s="3"/>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
@@ -19265,7 +21601,7 @@
         <v>106495053</v>
       </c>
       <c r="G2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="H2" t="s">
         <v>108</v>
@@ -19283,7 +21619,7 @@
         <v>1100000008354490</v>
       </c>
       <c r="M2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="N2" t="s">
         <v>60</v>
@@ -19340,7 +21676,7 @@
         <v>41620</v>
       </c>
       <c r="AH2" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="AI2">
         <v>49658</v>
@@ -19372,7 +21708,7 @@
         <v>106501599</v>
       </c>
       <c r="G3" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="H3" t="s">
         <v>111</v>
@@ -19390,7 +21726,7 @@
         <v>1100000010173720</v>
       </c>
       <c r="M3" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="N3" t="s">
         <v>60</v>
@@ -19450,7 +21786,7 @@
         <v>41620</v>
       </c>
       <c r="AH3" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="AI3">
         <v>49667</v>
@@ -19482,7 +21818,7 @@
         <v>106503721</v>
       </c>
       <c r="G4" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="H4" t="s">
         <v>111</v>
@@ -19533,7 +21869,7 @@
         <v>105.45</v>
       </c>
       <c r="X4" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="Z4" t="s">
         <v>110</v>
@@ -19560,7 +21896,7 @@
         <v>41620</v>
       </c>
       <c r="AH4" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="AI4">
         <v>0</v>
@@ -19592,7 +21928,7 @@
         <v>106504129</v>
       </c>
       <c r="G5" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="H5" t="s">
         <v>111</v>
@@ -19643,7 +21979,7 @@
         <v>108</v>
       </c>
       <c r="X5" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="Z5" t="s">
         <v>110</v>
@@ -19670,7 +22006,7 @@
         <v>41620</v>
       </c>
       <c r="AH5" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="AI5">
         <v>0</v>
@@ -19702,7 +22038,7 @@
         <v>106504474</v>
       </c>
       <c r="G6" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="H6" t="s">
         <v>111</v>
@@ -19753,7 +22089,7 @@
         <v>107.8</v>
       </c>
       <c r="X6" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="Z6" t="s">
         <v>110</v>
@@ -19780,7 +22116,7 @@
         <v>41620</v>
       </c>
       <c r="AH6" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="AI6">
         <v>0</v>
@@ -19812,7 +22148,7 @@
         <v>106504799</v>
       </c>
       <c r="G7" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="H7" t="s">
         <v>111</v>
@@ -19863,7 +22199,7 @@
         <v>110.8</v>
       </c>
       <c r="X7" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="Z7" t="s">
         <v>110</v>
@@ -19890,7 +22226,7 @@
         <v>41620</v>
       </c>
       <c r="AH7" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="AI7">
         <v>0</v>
@@ -19922,7 +22258,7 @@
         <v>106505098</v>
       </c>
       <c r="G8" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="H8" t="s">
         <v>111</v>
@@ -19973,7 +22309,7 @@
         <v>109.95</v>
       </c>
       <c r="X8" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="Z8" t="s">
         <v>110</v>
@@ -20000,7 +22336,7 @@
         <v>41620</v>
       </c>
       <c r="AH8" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="AI8">
         <v>0</v>
@@ -20032,7 +22368,7 @@
         <v>106505410</v>
       </c>
       <c r="G9" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="H9" t="s">
         <v>111</v>
@@ -20083,7 +22419,7 @@
         <v>112</v>
       </c>
       <c r="X9" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="Z9" t="s">
         <v>110</v>
@@ -20110,7 +22446,7 @@
         <v>41620</v>
       </c>
       <c r="AH9" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="AI9">
         <v>0</v>
@@ -20142,7 +22478,7 @@
         <v>106505732</v>
       </c>
       <c r="G10" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="H10" t="s">
         <v>111</v>
@@ -20193,7 +22529,7 @@
         <v>110</v>
       </c>
       <c r="X10" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="Z10" t="s">
         <v>110</v>
@@ -20220,7 +22556,7 @@
         <v>41620</v>
       </c>
       <c r="AH10" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="AI10">
         <v>0</v>
@@ -20252,7 +22588,7 @@
         <v>106506033</v>
       </c>
       <c r="G11" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="H11" t="s">
         <v>111</v>
@@ -20303,7 +22639,7 @@
         <v>109.05</v>
       </c>
       <c r="X11" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="Z11" t="s">
         <v>110</v>
@@ -20330,7 +22666,7 @@
         <v>41620</v>
       </c>
       <c r="AH11" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="AI11">
         <v>0</v>
@@ -20362,7 +22698,7 @@
         <v>106506284</v>
       </c>
       <c r="G12" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="H12" t="s">
         <v>111</v>
@@ -20380,7 +22716,7 @@
         <v>1100000011726420</v>
       </c>
       <c r="M12" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="N12" t="s">
         <v>60</v>
@@ -20440,7 +22776,7 @@
         <v>41620</v>
       </c>
       <c r="AH12" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="AI12">
         <v>49665</v>
@@ -20472,7 +22808,7 @@
         <v>106506308</v>
       </c>
       <c r="G13" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="H13" t="s">
         <v>111</v>
@@ -20523,7 +22859,7 @@
         <v>108.65</v>
       </c>
       <c r="X13" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="Z13" t="s">
         <v>110</v>
@@ -20550,7 +22886,7 @@
         <v>41620</v>
       </c>
       <c r="AH13" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="AI13">
         <v>0</v>
@@ -20582,7 +22918,7 @@
         <v>106520359</v>
       </c>
       <c r="G14" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="H14" t="s">
         <v>108</v>
@@ -20600,7 +22936,7 @@
         <v>1400000018611760</v>
       </c>
       <c r="M14" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="N14" t="s">
         <v>60</v>
@@ -20657,7 +22993,7 @@
         <v>41914</v>
       </c>
       <c r="AH14" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="AI14">
         <v>49531</v>
@@ -20689,7 +23025,7 @@
         <v>106523080</v>
       </c>
       <c r="G15" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="H15" t="s">
         <v>111</v>
@@ -20707,7 +23043,7 @@
         <v>1400000019385280</v>
       </c>
       <c r="M15" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="N15" t="s">
         <v>60</v>
@@ -20767,7 +23103,7 @@
         <v>41914</v>
       </c>
       <c r="AH15" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="AI15">
         <v>49667</v>
@@ -20799,7 +23135,7 @@
         <v>106523534</v>
       </c>
       <c r="G16" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="H16" t="s">
         <v>111</v>
@@ -20817,7 +23153,7 @@
         <v>1400000019531110</v>
       </c>
       <c r="M16" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="N16" t="s">
         <v>60</v>
@@ -20877,7 +23213,7 @@
         <v>41914</v>
       </c>
       <c r="AH16" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="AI16">
         <v>49665</v>
@@ -20909,7 +23245,7 @@
         <v>106734874</v>
       </c>
       <c r="G17" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="H17" t="s">
         <v>108</v>
@@ -20927,7 +23263,7 @@
         <v>1100000115077850</v>
       </c>
       <c r="M17" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="N17" t="s">
         <v>60</v>
@@ -20984,7 +23320,7 @@
         <v>41610</v>
       </c>
       <c r="AH17" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="AI17">
         <v>49658</v>
@@ -21016,7 +23352,7 @@
         <v>106744146</v>
       </c>
       <c r="G18" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H18" t="s">
         <v>111</v>
@@ -21034,7 +23370,7 @@
         <v>1100000119603260</v>
       </c>
       <c r="M18" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="N18" t="s">
         <v>60</v>
@@ -21091,7 +23427,7 @@
         <v>41610</v>
       </c>
       <c r="AH18" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="AI18">
         <v>49665</v>
@@ -21123,7 +23459,7 @@
         <v>106808118</v>
       </c>
       <c r="G19" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="H19" t="s">
         <v>108</v>
@@ -21141,7 +23477,7 @@
         <v>1000000133653810</v>
       </c>
       <c r="M19" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="N19" t="s">
         <v>60</v>
@@ -21198,7 +23534,7 @@
         <v>41577</v>
       </c>
       <c r="AH19" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="AI19">
         <v>49667</v>
@@ -21224,13 +23560,13 @@
         <v>38</v>
       </c>
       <c r="E20">
-        <v>110.85</v>
+        <v>105.9</v>
       </c>
       <c r="F20">
-        <v>106223515</v>
+        <v>106816967</v>
       </c>
       <c r="G20" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="H20" t="s">
         <v>111</v>
@@ -21245,16 +23581,16 @@
         <v>38</v>
       </c>
       <c r="L20" s="4">
-        <v>1000000090274150</v>
+        <v>1000000137278300</v>
       </c>
       <c r="M20" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="N20" t="s">
         <v>60</v>
       </c>
       <c r="O20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -21266,7 +23602,7 @@
         <v>109</v>
       </c>
       <c r="S20" s="3">
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -21275,13 +23611,10 @@
         <v>0</v>
       </c>
       <c r="V20">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="W20">
-        <v>110.6</v>
-      </c>
-      <c r="Y20">
-        <v>5.0645842202403E+23</v>
+        <v>105.9</v>
       </c>
       <c r="Z20" t="s">
         <v>110</v>
@@ -21305,16 +23638,16 @@
         <v>0</v>
       </c>
       <c r="AG20">
-        <v>41617</v>
+        <v>41577</v>
       </c>
       <c r="AH20" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="AI20">
-        <v>49658</v>
+        <v>49665</v>
       </c>
       <c r="AJ20">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AK20" t="s">
         <v>38</v>
@@ -21331,16 +23664,16 @@
         <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>943562479</v>
+        <v>106817034</v>
       </c>
       <c r="G21" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="H21" t="s">
         <v>111</v>
@@ -21376,7 +23709,7 @@
         <v>149</v>
       </c>
       <c r="S21" s="3">
-        <v>45338</v>
+        <v>45357</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -21388,13 +23721,10 @@
         <v>100</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>105.15</v>
       </c>
       <c r="X21" t="s">
-        <v>152</v>
-      </c>
-      <c r="Y21">
-        <v>202402161254583</v>
+        <v>186</v>
       </c>
       <c r="Z21" t="s">
         <v>110</v>
@@ -21418,10 +23748,10 @@
         <v>0</v>
       </c>
       <c r="AG21">
-        <v>35734</v>
+        <v>41577</v>
       </c>
       <c r="AH21" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="AI21">
         <v>0</v>
@@ -21450,10 +23780,10 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>943562480</v>
+        <v>106817109</v>
       </c>
       <c r="G22" t="s">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="H22" t="s">
         <v>111</v>
@@ -21489,7 +23819,7 @@
         <v>149</v>
       </c>
       <c r="S22" s="3">
-        <v>45338</v>
+        <v>45357</v>
       </c>
       <c r="T22">
         <v>0</v>
@@ -21501,10 +23831,10 @@
         <v>100</v>
       </c>
       <c r="W22">
-        <v>146.80000000000001</v>
+        <v>104.7</v>
       </c>
       <c r="X22" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="Z22" t="s">
         <v>110</v>
@@ -21528,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="AG22">
-        <v>35734</v>
+        <v>41577</v>
       </c>
       <c r="AH22" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="AI22">
         <v>0</v>
@@ -21560,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>943562485</v>
+        <v>106817183</v>
       </c>
       <c r="G23" t="s">
-        <v>155</v>
+        <v>188</v>
       </c>
       <c r="H23" t="s">
         <v>111</v>
@@ -21599,7 +23929,7 @@
         <v>149</v>
       </c>
       <c r="S23" s="3">
-        <v>45338</v>
+        <v>45357</v>
       </c>
       <c r="T23">
         <v>0</v>
@@ -21611,10 +23941,10 @@
         <v>100</v>
       </c>
       <c r="W23">
-        <v>146.75</v>
+        <v>104.5</v>
       </c>
       <c r="X23" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="Z23" t="s">
         <v>110</v>
@@ -21638,10 +23968,10 @@
         <v>0</v>
       </c>
       <c r="AG23">
-        <v>35734</v>
+        <v>41577</v>
       </c>
       <c r="AH23" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="AI23">
         <v>0</v>
@@ -21670,10 +24000,10 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>943562488</v>
+        <v>106817238</v>
       </c>
       <c r="G24" t="s">
-        <v>156</v>
+        <v>189</v>
       </c>
       <c r="H24" t="s">
         <v>111</v>
@@ -21709,7 +24039,7 @@
         <v>149</v>
       </c>
       <c r="S24" s="3">
-        <v>45338</v>
+        <v>45357</v>
       </c>
       <c r="T24">
         <v>0</v>
@@ -21721,10 +24051,10 @@
         <v>100</v>
       </c>
       <c r="W24">
-        <v>147.05000000000001</v>
+        <v>103.6</v>
       </c>
       <c r="X24" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="Z24" t="s">
         <v>110</v>
@@ -21748,10 +24078,10 @@
         <v>0</v>
       </c>
       <c r="AG24">
-        <v>35734</v>
+        <v>41577</v>
       </c>
       <c r="AH24" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="AI24">
         <v>0</v>
@@ -21774,19 +24104,19 @@
         <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>122.5</v>
       </c>
       <c r="F25">
-        <v>943562507</v>
+        <v>106832379</v>
       </c>
       <c r="G25" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="H25" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I25" t="s">
         <v>61</v>
@@ -21798,10 +24128,10 @@
         <v>38</v>
       </c>
       <c r="L25" s="4">
-        <v>0</v>
+        <v>1000000143702500</v>
       </c>
       <c r="M25" t="s">
-        <v>148</v>
+        <v>192</v>
       </c>
       <c r="N25" t="s">
         <v>60</v>
@@ -21816,28 +24146,22 @@
         <v>50645842</v>
       </c>
       <c r="R25" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="S25" s="3">
-        <v>45338</v>
+        <v>45357</v>
       </c>
       <c r="T25">
         <v>0</v>
       </c>
       <c r="U25">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V25">
         <v>100</v>
       </c>
       <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y25">
-        <v>202402161255144</v>
+        <v>122.5</v>
       </c>
       <c r="Z25" t="s">
         <v>110</v>
@@ -21861,16 +24185,16 @@
         <v>0</v>
       </c>
       <c r="AG25">
-        <v>35734</v>
+        <v>41577</v>
       </c>
       <c r="AH25" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="AI25">
-        <v>0</v>
+        <v>49667</v>
       </c>
       <c r="AJ25">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AK25" t="s">
         <v>38</v>
@@ -21890,13 +24214,13 @@
         <v>112</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>148.07499999999999</v>
       </c>
       <c r="F26">
-        <v>943562511</v>
+        <v>106836818</v>
       </c>
       <c r="G26" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="H26" t="s">
         <v>111</v>
@@ -21911,10 +24235,10 @@
         <v>38</v>
       </c>
       <c r="L26" s="4">
-        <v>0</v>
+        <v>1000000146169860</v>
       </c>
       <c r="M26" t="s">
-        <v>148</v>
+        <v>198</v>
       </c>
       <c r="N26" t="s">
         <v>60</v>
@@ -21929,16 +24253,16 @@
         <v>50645842</v>
       </c>
       <c r="R26" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="S26" s="3">
-        <v>45338</v>
+        <v>45357</v>
       </c>
       <c r="T26">
         <v>0</v>
       </c>
       <c r="U26">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V26">
         <v>100</v>
@@ -21946,11 +24270,8 @@
       <c r="W26">
         <v>0</v>
       </c>
-      <c r="X26" t="s">
-        <v>157</v>
-      </c>
       <c r="Y26">
-        <v>202402161255175</v>
+        <v>5.0645842202403E+23</v>
       </c>
       <c r="Z26" t="s">
         <v>110</v>
@@ -21974,16 +24295,16 @@
         <v>0</v>
       </c>
       <c r="AG26">
-        <v>35734</v>
+        <v>41577</v>
       </c>
       <c r="AH26" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="AI26">
-        <v>0</v>
+        <v>49665</v>
       </c>
       <c r="AJ26">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AK26" t="s">
         <v>38</v>
@@ -22006,13 +24327,13 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>943562523</v>
+        <v>107027186</v>
       </c>
       <c r="G27" t="s">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="H27" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I27" t="s">
         <v>61</v>
@@ -22045,25 +24366,22 @@
         <v>149</v>
       </c>
       <c r="S27" s="3">
-        <v>45338</v>
+        <v>45357</v>
       </c>
       <c r="T27">
         <v>0</v>
       </c>
       <c r="U27">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="V27">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="W27">
-        <v>149</v>
+        <v>407.05</v>
       </c>
       <c r="X27" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y27">
-        <v>202402161255286</v>
+        <v>200</v>
       </c>
       <c r="Z27" t="s">
         <v>110</v>
@@ -22087,10 +24405,10 @@
         <v>0</v>
       </c>
       <c r="AG27">
-        <v>35734</v>
+        <v>41927</v>
       </c>
       <c r="AH27" t="s">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AI27">
         <v>0</v>
@@ -22103,100 +24421,1269 @@
       </c>
     </row>
     <row r="28" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="S28" s="3"/>
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>107027187</v>
+      </c>
+      <c r="G28" t="s">
+        <v>202</v>
+      </c>
+      <c r="H28" t="s">
+        <v>108</v>
+      </c>
+      <c r="I28" t="s">
+        <v>61</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28" t="s">
+        <v>38</v>
+      </c>
+      <c r="L28" s="4">
+        <v>0</v>
+      </c>
+      <c r="M28" t="s">
+        <v>148</v>
+      </c>
+      <c r="N28" t="s">
+        <v>60</v>
+      </c>
+      <c r="O28">
+        <v>2</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>50645842</v>
+      </c>
+      <c r="R28" t="s">
+        <v>149</v>
+      </c>
+      <c r="S28" s="3">
+        <v>45357</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>30</v>
+      </c>
+      <c r="V28">
+        <v>30</v>
+      </c>
+      <c r="W28">
+        <v>450</v>
+      </c>
+      <c r="X28" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>41935</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>203</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
+      </c>
+      <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="29" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="S29" s="3"/>
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>107027189</v>
+      </c>
+      <c r="G29" t="s">
+        <v>204</v>
+      </c>
+      <c r="H29" t="s">
+        <v>108</v>
+      </c>
+      <c r="I29" t="s">
+        <v>61</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29" t="s">
+        <v>38</v>
+      </c>
+      <c r="L29" s="4">
+        <v>0</v>
+      </c>
+      <c r="M29" t="s">
+        <v>148</v>
+      </c>
+      <c r="N29" t="s">
+        <v>60</v>
+      </c>
+      <c r="O29">
+        <v>2</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>50645842</v>
+      </c>
+      <c r="R29" t="s">
+        <v>149</v>
+      </c>
+      <c r="S29" s="3">
+        <v>45357</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>100</v>
+      </c>
+      <c r="V29">
+        <v>100</v>
+      </c>
+      <c r="W29">
+        <v>100</v>
+      </c>
+      <c r="X29" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>41639</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>205</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="30" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="S30" s="3"/>
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>107027191</v>
+      </c>
+      <c r="G30" t="s">
+        <v>206</v>
+      </c>
+      <c r="H30" t="s">
+        <v>108</v>
+      </c>
+      <c r="I30" t="s">
+        <v>61</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30" t="s">
+        <v>38</v>
+      </c>
+      <c r="L30" s="4">
+        <v>0</v>
+      </c>
+      <c r="M30" t="s">
+        <v>148</v>
+      </c>
+      <c r="N30" t="s">
+        <v>60</v>
+      </c>
+      <c r="O30">
+        <v>2</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>50645842</v>
+      </c>
+      <c r="R30" t="s">
+        <v>149</v>
+      </c>
+      <c r="S30" s="3">
+        <v>45357</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>100</v>
+      </c>
+      <c r="V30">
+        <v>100</v>
+      </c>
+      <c r="W30">
+        <v>11.15</v>
+      </c>
+      <c r="X30" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>41610</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>177</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="31" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="S31" s="3"/>
-      <c r="AE31" s="2"/>
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>107027239</v>
+      </c>
+      <c r="G31" t="s">
+        <v>207</v>
+      </c>
+      <c r="H31" t="s">
+        <v>108</v>
+      </c>
+      <c r="I31" t="s">
+        <v>61</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
+        <v>38</v>
+      </c>
+      <c r="L31" s="4">
+        <v>0</v>
+      </c>
+      <c r="M31" t="s">
+        <v>148</v>
+      </c>
+      <c r="N31" t="s">
+        <v>60</v>
+      </c>
+      <c r="O31">
+        <v>2</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>50645842</v>
+      </c>
+      <c r="R31" t="s">
+        <v>149</v>
+      </c>
+      <c r="S31" s="3">
+        <v>45357</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>30</v>
+      </c>
+      <c r="V31">
+        <v>30</v>
+      </c>
+      <c r="W31">
+        <v>407.05</v>
+      </c>
+      <c r="X31" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>41927</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>201</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>38</v>
+      </c>
       <c r="AR31" s="3"/>
     </row>
     <row r="32" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="S32" s="3"/>
-      <c r="AE32" s="2"/>
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>107027240</v>
+      </c>
+      <c r="G32" t="s">
+        <v>208</v>
+      </c>
+      <c r="H32" t="s">
+        <v>108</v>
+      </c>
+      <c r="I32" t="s">
+        <v>61</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32" t="s">
+        <v>38</v>
+      </c>
+      <c r="L32" s="4">
+        <v>0</v>
+      </c>
+      <c r="M32" t="s">
+        <v>148</v>
+      </c>
+      <c r="N32" t="s">
+        <v>60</v>
+      </c>
+      <c r="O32">
+        <v>2</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>50645842</v>
+      </c>
+      <c r="R32" t="s">
+        <v>149</v>
+      </c>
+      <c r="S32" s="3">
+        <v>45357</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>30</v>
+      </c>
+      <c r="V32">
+        <v>30</v>
+      </c>
+      <c r="W32">
+        <v>450</v>
+      </c>
+      <c r="X32" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>41935</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>203</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
+      </c>
+      <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>38</v>
+      </c>
       <c r="AR32" s="3"/>
     </row>
-    <row r="33" spans="19:44" x14ac:dyDescent="0.25">
-      <c r="S33" s="3"/>
-      <c r="AE33" s="2"/>
+    <row r="33" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>107027241</v>
+      </c>
+      <c r="G33" t="s">
+        <v>209</v>
+      </c>
+      <c r="H33" t="s">
+        <v>108</v>
+      </c>
+      <c r="I33" t="s">
+        <v>61</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33" t="s">
+        <v>38</v>
+      </c>
+      <c r="L33" s="4">
+        <v>0</v>
+      </c>
+      <c r="M33" t="s">
+        <v>148</v>
+      </c>
+      <c r="N33" t="s">
+        <v>60</v>
+      </c>
+      <c r="O33">
+        <v>2</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>50645842</v>
+      </c>
+      <c r="R33" t="s">
+        <v>149</v>
+      </c>
+      <c r="S33" s="3">
+        <v>45357</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>100</v>
+      </c>
+      <c r="V33">
+        <v>100</v>
+      </c>
+      <c r="W33">
+        <v>100</v>
+      </c>
+      <c r="X33" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>41639</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>205</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>38</v>
+      </c>
       <c r="AR33" s="3"/>
     </row>
-    <row r="34" spans="19:44" x14ac:dyDescent="0.25">
-      <c r="S34" s="3"/>
-      <c r="AE34" s="2"/>
+    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>107027243</v>
+      </c>
+      <c r="G34" t="s">
+        <v>210</v>
+      </c>
+      <c r="H34" t="s">
+        <v>108</v>
+      </c>
+      <c r="I34" t="s">
+        <v>61</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34" t="s">
+        <v>38</v>
+      </c>
+      <c r="L34" s="4">
+        <v>0</v>
+      </c>
+      <c r="M34" t="s">
+        <v>148</v>
+      </c>
+      <c r="N34" t="s">
+        <v>60</v>
+      </c>
+      <c r="O34">
+        <v>2</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>50645842</v>
+      </c>
+      <c r="R34" t="s">
+        <v>149</v>
+      </c>
+      <c r="S34" s="3">
+        <v>45357</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>100</v>
+      </c>
+      <c r="V34">
+        <v>100</v>
+      </c>
+      <c r="W34">
+        <v>11.15</v>
+      </c>
+      <c r="X34" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>41610</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>177</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>38</v>
+      </c>
       <c r="AR34" s="3"/>
     </row>
-    <row r="35" spans="19:44" x14ac:dyDescent="0.25">
-      <c r="S35" s="3"/>
-      <c r="AE35" s="2"/>
+    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>107027385</v>
+      </c>
+      <c r="G35" t="s">
+        <v>211</v>
+      </c>
+      <c r="H35" t="s">
+        <v>108</v>
+      </c>
+      <c r="I35" t="s">
+        <v>61</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35" t="s">
+        <v>38</v>
+      </c>
+      <c r="L35" s="4">
+        <v>0</v>
+      </c>
+      <c r="M35" t="s">
+        <v>148</v>
+      </c>
+      <c r="N35" t="s">
+        <v>60</v>
+      </c>
+      <c r="O35">
+        <v>3</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>50645842</v>
+      </c>
+      <c r="R35" t="s">
+        <v>149</v>
+      </c>
+      <c r="S35" s="3">
+        <v>45357</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>45</v>
+      </c>
+      <c r="V35">
+        <v>45</v>
+      </c>
+      <c r="W35">
+        <v>407.05</v>
+      </c>
+      <c r="X35" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>41927</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>201</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>38</v>
+      </c>
       <c r="AR35" s="3"/>
     </row>
-    <row r="36" spans="19:44" x14ac:dyDescent="0.25">
-      <c r="S36" s="3"/>
-      <c r="AE36" s="2"/>
+    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>107027386</v>
+      </c>
+      <c r="G36" t="s">
+        <v>212</v>
+      </c>
+      <c r="H36" t="s">
+        <v>108</v>
+      </c>
+      <c r="I36" t="s">
+        <v>61</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
+        <v>38</v>
+      </c>
+      <c r="L36" s="4">
+        <v>0</v>
+      </c>
+      <c r="M36" t="s">
+        <v>148</v>
+      </c>
+      <c r="N36" t="s">
+        <v>60</v>
+      </c>
+      <c r="O36">
+        <v>3</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>50645842</v>
+      </c>
+      <c r="R36" t="s">
+        <v>149</v>
+      </c>
+      <c r="S36" s="3">
+        <v>45357</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>45</v>
+      </c>
+      <c r="V36">
+        <v>45</v>
+      </c>
+      <c r="W36">
+        <v>450</v>
+      </c>
+      <c r="X36" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC36">
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF36">
+        <v>0</v>
+      </c>
+      <c r="AG36">
+        <v>41935</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>203</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
+      </c>
+      <c r="AJ36">
+        <v>0</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>38</v>
+      </c>
       <c r="AR36" s="3"/>
     </row>
-    <row r="37" spans="19:44" x14ac:dyDescent="0.25">
-      <c r="S37" s="3"/>
-      <c r="AE37" s="2"/>
+    <row r="37" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>107027388</v>
+      </c>
+      <c r="G37" t="s">
+        <v>213</v>
+      </c>
+      <c r="H37" t="s">
+        <v>108</v>
+      </c>
+      <c r="I37" t="s">
+        <v>61</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37" t="s">
+        <v>38</v>
+      </c>
+      <c r="L37" s="4">
+        <v>0</v>
+      </c>
+      <c r="M37" t="s">
+        <v>148</v>
+      </c>
+      <c r="N37" t="s">
+        <v>60</v>
+      </c>
+      <c r="O37">
+        <v>2</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>50645842</v>
+      </c>
+      <c r="R37" t="s">
+        <v>149</v>
+      </c>
+      <c r="S37" s="3">
+        <v>45357</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>100</v>
+      </c>
+      <c r="V37">
+        <v>100</v>
+      </c>
+      <c r="W37">
+        <v>100</v>
+      </c>
+      <c r="X37" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF37">
+        <v>0</v>
+      </c>
+      <c r="AG37">
+        <v>41639</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>205</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
+      </c>
+      <c r="AJ37">
+        <v>0</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>38</v>
+      </c>
       <c r="AR37" s="3"/>
     </row>
-    <row r="38" spans="19:44" x14ac:dyDescent="0.25">
-      <c r="S38" s="3"/>
-      <c r="AE38" s="2"/>
+    <row r="38" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>107027389</v>
+      </c>
+      <c r="G38" t="s">
+        <v>214</v>
+      </c>
+      <c r="H38" t="s">
+        <v>108</v>
+      </c>
+      <c r="I38" t="s">
+        <v>61</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38" t="s">
+        <v>38</v>
+      </c>
+      <c r="L38" s="4">
+        <v>0</v>
+      </c>
+      <c r="M38" t="s">
+        <v>148</v>
+      </c>
+      <c r="N38" t="s">
+        <v>60</v>
+      </c>
+      <c r="O38">
+        <v>2</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>50645842</v>
+      </c>
+      <c r="R38" t="s">
+        <v>149</v>
+      </c>
+      <c r="S38" s="3">
+        <v>45357</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>100</v>
+      </c>
+      <c r="V38">
+        <v>100</v>
+      </c>
+      <c r="W38">
+        <v>11.15</v>
+      </c>
+      <c r="X38" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC38">
+        <v>0</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF38">
+        <v>0</v>
+      </c>
+      <c r="AG38">
+        <v>41610</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>177</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
+      </c>
+      <c r="AJ38">
+        <v>0</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>38</v>
+      </c>
       <c r="AR38" s="3"/>
     </row>
-    <row r="39" spans="19:44" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:44" x14ac:dyDescent="0.25">
       <c r="S39" s="3"/>
       <c r="AE39" s="2"/>
       <c r="AR39" s="3"/>
     </row>
-    <row r="40" spans="19:44" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.25">
       <c r="S40" s="3"/>
       <c r="AE40" s="2"/>
       <c r="AR40" s="3"/>
     </row>
-    <row r="41" spans="19:44" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.25">
       <c r="S41" s="3"/>
       <c r="AE41" s="2"/>
       <c r="AR41" s="3"/>
     </row>
-    <row r="42" spans="19:44" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:44" x14ac:dyDescent="0.25">
       <c r="S42" s="3"/>
       <c r="AE42" s="2"/>
       <c r="AR42" s="3"/>
     </row>
-    <row r="43" spans="19:44" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:44" x14ac:dyDescent="0.25">
       <c r="S43" s="3"/>
       <c r="AE43" s="2"/>
       <c r="AR43" s="3"/>
     </row>
-    <row r="44" spans="19:44" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:44" x14ac:dyDescent="0.25">
       <c r="S44" s="3"/>
       <c r="AE44" s="2"/>
       <c r="AR44" s="3"/>
     </row>
-    <row r="45" spans="19:44" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:44" x14ac:dyDescent="0.25">
       <c r="S45" s="3"/>
       <c r="AE45" s="2"/>
       <c r="AR45" s="3"/>
     </row>
-    <row r="46" spans="19:44" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:44" x14ac:dyDescent="0.25">
       <c r="S46" s="3"/>
       <c r="AE46" s="2"/>
       <c r="AR46" s="3"/>
     </row>
-    <row r="47" spans="19:44" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:44" x14ac:dyDescent="0.25">
       <c r="S47" s="3"/>
       <c r="AE47" s="2"/>
       <c r="AR47" s="3"/>
     </row>
-    <row r="48" spans="19:44" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:44" x14ac:dyDescent="0.25">
       <c r="S48" s="3"/>
       <c r="AE48" s="2"/>
       <c r="AR48" s="3"/>
@@ -22600,7 +26087,7 @@
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="B2">
         <v>112.75</v>
@@ -22621,10 +26108,10 @@
         <v>41577</v>
       </c>
       <c r="H2" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="I2" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="J2">
         <v>116.98</v>
@@ -22645,7 +26132,7 @@
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="B3">
         <v>125</v>
@@ -22666,10 +26153,10 @@
         <v>41577</v>
       </c>
       <c r="H3" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="I3" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="J3">
         <v>116.98</v>
@@ -22690,7 +26177,7 @@
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="B4">
         <v>131.9</v>
@@ -22711,10 +26198,10 @@
         <v>41577</v>
       </c>
       <c r="H4" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="I4" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="J4">
         <v>116.98</v>
@@ -22734,7 +26221,7 @@
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="B5">
         <v>148.44999999999999</v>
@@ -22755,10 +26242,10 @@
         <v>41577</v>
       </c>
       <c r="H5" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="I5" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="J5">
         <v>116.98</v>
